--- a/doc/planning/planning_gantt.xlsx
+++ b/doc/planning/planning_gantt.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27425"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ruthv\PycharmProjects\infovis\doc\planning\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\dev\python\infovis\doc\planning\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A58D0C4D-29B3-4EB7-B6E8-4CF3AAB3B50E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-105" yWindow="-105" windowWidth="23258" windowHeight="12458"/>
   </bookViews>
   <sheets>
     <sheet name="planning" sheetId="13" r:id="rId1"/>
@@ -18,12 +17,12 @@
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">planning!$A$3:$IK$33</definedName>
+    <definedName name="helpRow">planning!#REF!</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="0">planning!$A$1:$IK$33</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="0">planning!$1:$3</definedName>
-    <definedName name="helpRow">planning!#REF!</definedName>
     <definedName name="valuevx">42.314159</definedName>
   </definedNames>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -41,12 +40,12 @@
 </file>
 
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <authors>
     <author>Jon</author>
   </authors>
   <commentList>
-    <comment ref="C3" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000001000000}">
+    <comment ref="C3" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -72,7 +71,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="D3" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000002000000}">
+    <comment ref="D3" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -193,7 +192,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="E3" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000003000000}">
+    <comment ref="E3" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -304,7 +303,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="F3" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000004000000}">
+    <comment ref="F3" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -330,7 +329,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="G3" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000005000000}">
+    <comment ref="G3" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -356,7 +355,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="H3" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000006000000}">
+    <comment ref="H3" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -382,7 +381,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I3" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000007000000}">
+    <comment ref="I3" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -505,15 +504,9 @@
     <t>clinic: interim presentations</t>
   </si>
   <si>
-    <t>sprint 1: data processing / aggregation / filters</t>
-  </si>
-  <si>
     <t>sprint 1: bar charts, BAN, popups</t>
   </si>
   <si>
-    <t>sprint 1: map plot</t>
-  </si>
-  <si>
     <t>M</t>
   </si>
   <si>
@@ -536,12 +529,18 @@
   </si>
   <si>
     <t>online interim presentation</t>
+  </si>
+  <si>
+    <t>sprint 1: data processing / aggregation / filters / interactivity</t>
+  </si>
+  <si>
+    <t>sprint 1: map plot (framework selection, notebook impl)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="2">
     <numFmt numFmtId="164" formatCode="dd\ mmm\ yy"/>
     <numFmt numFmtId="165" formatCode="ddd\ dd/mm/yy"/>
@@ -1143,19 +1142,19 @@
     <cellStyle name="Accent4" xfId="22" builtinId="41" customBuiltin="1"/>
     <cellStyle name="Accent5" xfId="23" builtinId="45" customBuiltin="1"/>
     <cellStyle name="Accent6" xfId="24" builtinId="49" customBuiltin="1"/>
-    <cellStyle name="Bad" xfId="25" xr:uid="{00000000-0005-0000-0000-000018000000}"/>
-    <cellStyle name="Check Cell" xfId="26" xr:uid="{00000000-0005-0000-0000-000019000000}"/>
-    <cellStyle name="Explanatory Text" xfId="27" xr:uid="{00000000-0005-0000-0000-00001A000000}"/>
-    <cellStyle name="Heading 1" xfId="28" xr:uid="{00000000-0005-0000-0000-00001B000000}"/>
-    <cellStyle name="Heading 2" xfId="29" xr:uid="{00000000-0005-0000-0000-00001C000000}"/>
-    <cellStyle name="Heading 3" xfId="30" xr:uid="{00000000-0005-0000-0000-00001D000000}"/>
-    <cellStyle name="Heading 4" xfId="31" xr:uid="{00000000-0005-0000-0000-00001E000000}"/>
-    <cellStyle name="Input" xfId="32" xr:uid="{00000000-0005-0000-0000-00001F000000}"/>
-    <cellStyle name="Normal 2" xfId="33" xr:uid="{00000000-0005-0000-0000-000021000000}"/>
-    <cellStyle name="Note" xfId="34" xr:uid="{00000000-0005-0000-0000-000022000000}"/>
-    <cellStyle name="Output" xfId="35" xr:uid="{00000000-0005-0000-0000-000023000000}"/>
-    <cellStyle name="Procent" xfId="36" builtinId="5"/>
-    <cellStyle name="Standaard" xfId="0" builtinId="0"/>
+    <cellStyle name="Bad" xfId="25"/>
+    <cellStyle name="Check Cell" xfId="26"/>
+    <cellStyle name="Explanatory Text" xfId="27"/>
+    <cellStyle name="Heading 1" xfId="28"/>
+    <cellStyle name="Heading 2" xfId="29"/>
+    <cellStyle name="Heading 3" xfId="30"/>
+    <cellStyle name="Heading 4" xfId="31"/>
+    <cellStyle name="Input" xfId="32"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal 2" xfId="33"/>
+    <cellStyle name="Note" xfId="34"/>
+    <cellStyle name="Output" xfId="35"/>
+    <cellStyle name="Percent" xfId="36" builtinId="5"/>
   </cellStyles>
   <dxfs count="5">
     <dxf>
@@ -1290,13 +1289,13 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>0</xdr:col>
-          <xdr:colOff>45720</xdr:colOff>
+          <xdr:colOff>47625</xdr:colOff>
           <xdr:row>1</xdr:row>
-          <xdr:rowOff>22860</xdr:rowOff>
+          <xdr:rowOff>23813</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>3</xdr:col>
-          <xdr:colOff>381000</xdr:colOff>
+          <xdr:colOff>139212</xdr:colOff>
           <xdr:row>2</xdr:row>
           <xdr:rowOff>152400</xdr:rowOff>
         </xdr:to>
@@ -1659,7 +1658,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet5">
     <outlinePr summaryBelow="0"/>
     <pageSetUpPr fitToPage="1"/>
@@ -1667,23 +1666,23 @@
   <dimension ref="A1:IK33"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="130" zoomScaleNormal="130" zoomScaleSheetLayoutView="115" workbookViewId="0">
-      <pane ySplit="3" topLeftCell="A11" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A23" sqref="A23"/>
+      <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A22" sqref="A22:F24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.44140625" defaultRowHeight="13.2" outlineLevelRow="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="11.46484375" defaultRowHeight="12.75" outlineLevelRow="1" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="27.109375" customWidth="1"/>
+    <col min="1" max="1" width="30.53125" customWidth="1"/>
     <col min="2" max="2" width="5.6640625" customWidth="1"/>
-    <col min="3" max="3" width="10.109375" customWidth="1"/>
-    <col min="4" max="4" width="10.44140625" customWidth="1"/>
-    <col min="5" max="5" width="6.109375" customWidth="1"/>
-    <col min="6" max="6" width="9.109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.1328125" customWidth="1"/>
+    <col min="4" max="4" width="10.46484375" customWidth="1"/>
+    <col min="5" max="5" width="6.1328125" customWidth="1"/>
+    <col min="6" max="6" width="9.1328125" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="1" customWidth="1"/>
-    <col min="8" max="245" width="0.44140625" customWidth="1"/>
+    <col min="8" max="245" width="0.46484375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:245" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:245" ht="15" x14ac:dyDescent="0.4">
       <c r="A1" s="2" t="s">
         <v>10</v>
       </c>
@@ -1695,7 +1694,7 @@
       </c>
       <c r="F1" s="19">
         <f ca="1">TODAY()</f>
-        <v>45392</v>
+        <v>45398</v>
       </c>
       <c r="G1" s="19">
         <v>45323</v>
@@ -1718,7 +1717,7 @@
       <c r="U1" s="17"/>
       <c r="V1" s="17"/>
     </row>
-    <row r="2" spans="1:245" s="1" customFormat="1" ht="6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:245" s="1" customFormat="1" ht="6" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A2" s="20"/>
       <c r="B2"/>
       <c r="C2"/>
@@ -2679,7 +2678,7 @@
         <v>45557</v>
       </c>
     </row>
-    <row r="3" spans="1:245" ht="43.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:245" ht="43.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A3" s="12" t="s">
         <v>8</v>
       </c>
@@ -3040,7 +3039,7 @@
       <c r="IJ3" s="33"/>
       <c r="IK3" s="34"/>
     </row>
-    <row r="4" spans="1:245" s="15" customFormat="1" ht="10.199999999999999" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:245" s="15" customFormat="1" ht="10.15" x14ac:dyDescent="0.3">
       <c r="A4" s="26" t="s">
         <v>11</v>
       </c>
@@ -3061,7 +3060,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:245" s="16" customFormat="1" ht="10.199999999999999" outlineLevel="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:245" s="16" customFormat="1" ht="10.15" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A5" s="6" t="s">
         <v>12</v>
       </c>
@@ -3082,7 +3081,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:245" s="16" customFormat="1" ht="10.199999999999999" outlineLevel="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:245" s="16" customFormat="1" ht="10.15" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A6" s="6" t="s">
         <v>13</v>
       </c>
@@ -3103,7 +3102,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:245" s="16" customFormat="1" ht="10.199999999999999" outlineLevel="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:245" s="16" customFormat="1" ht="10.15" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A7" s="6" t="s">
         <v>21</v>
       </c>
@@ -3125,7 +3124,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:245" s="16" customFormat="1" ht="10.199999999999999" outlineLevel="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:245" s="16" customFormat="1" ht="10.15" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A8" s="6" t="s">
         <v>22</v>
       </c>
@@ -3146,7 +3145,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:245" s="16" customFormat="1" ht="10.199999999999999" outlineLevel="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:245" s="16" customFormat="1" ht="10.15" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A9" s="6" t="s">
         <v>16</v>
       </c>
@@ -3167,7 +3166,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:245" s="16" customFormat="1" ht="10.199999999999999" outlineLevel="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:245" s="16" customFormat="1" ht="10.15" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A10" s="6" t="s">
         <v>17</v>
       </c>
@@ -3189,7 +3188,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:245" s="16" customFormat="1" ht="10.199999999999999" outlineLevel="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:245" s="16" customFormat="1" ht="10.15" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A11" s="6" t="s">
         <v>18</v>
       </c>
@@ -3211,7 +3210,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:245" s="16" customFormat="1" ht="10.199999999999999" outlineLevel="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:245" s="16" customFormat="1" ht="10.15" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A12" s="6" t="s">
         <v>19</v>
       </c>
@@ -3232,7 +3231,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:245" s="16" customFormat="1" ht="10.199999999999999" outlineLevel="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:245" s="16" customFormat="1" ht="10.15" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A13" s="6" t="s">
         <v>23</v>
       </c>
@@ -3253,7 +3252,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:245" s="16" customFormat="1" ht="10.199999999999999" outlineLevel="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:245" s="16" customFormat="1" ht="10.15" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A14" s="6" t="s">
         <v>24</v>
       </c>
@@ -3274,7 +3273,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:245" s="16" customFormat="1" ht="10.199999999999999" outlineLevel="1" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:245" s="16" customFormat="1" ht="10.15" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A15" s="6" t="s">
         <v>25</v>
       </c>
@@ -3292,12 +3291,12 @@
         <v>7</v>
       </c>
       <c r="F15" s="8">
-        <v>0.5</v>
+        <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:245" s="16" customFormat="1" ht="10.199999999999999" outlineLevel="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:245" s="16" customFormat="1" ht="10.15" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A16" s="6" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="B16" s="6" t="s">
         <v>20</v>
@@ -3314,10 +3313,10 @@
         <v>7</v>
       </c>
       <c r="F16" s="8">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:112" s="16" customFormat="1" ht="10.199999999999999" outlineLevel="1" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:112" s="16" customFormat="1" ht="10.15" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A17" s="6" t="s">
         <v>26</v>
       </c>
@@ -3335,12 +3334,12 @@
         <v>1</v>
       </c>
       <c r="F17" s="8">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:112" s="16" customFormat="1" ht="10.199999999999999" outlineLevel="1" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:112" s="16" customFormat="1" ht="10.15" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A18" s="6" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="B18" s="6" t="s">
         <v>15</v>
@@ -3359,7 +3358,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:112" s="16" customFormat="1" ht="10.199999999999999" outlineLevel="1" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:112" s="16" customFormat="1" ht="10.15" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A19" s="6" t="s">
         <v>27</v>
       </c>
@@ -3383,7 +3382,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="20" spans="1:112" s="16" customFormat="1" ht="10.199999999999999" outlineLevel="1" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:112" s="16" customFormat="1" ht="10.15" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A20" s="6" t="s">
         <v>27</v>
       </c>
@@ -3404,7 +3403,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="21" spans="1:112" s="16" customFormat="1" ht="10.199999999999999" outlineLevel="1" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:112" s="16" customFormat="1" ht="10.15" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A21" s="6" t="s">
         <v>29</v>
       </c>
@@ -3425,9 +3424,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:112" s="16" customFormat="1" ht="10.199999999999999" outlineLevel="1" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:112" s="16" customFormat="1" ht="10.15" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A22" s="6" t="s">
-        <v>30</v>
+        <v>39</v>
       </c>
       <c r="B22" s="6" t="s">
         <v>6</v>
@@ -3446,12 +3445,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:112" s="16" customFormat="1" ht="10.199999999999999" outlineLevel="1" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:112" s="16" customFormat="1" ht="10.15" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A23" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="B23" s="6" t="s">
         <v>31</v>
-      </c>
-      <c r="B23" s="6" t="s">
-        <v>33</v>
       </c>
       <c r="C23" s="29">
         <v>45404</v>
@@ -3467,9 +3466,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:112" s="16" customFormat="1" ht="10.199999999999999" outlineLevel="1" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:112" s="16" customFormat="1" ht="10.15" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A24" s="6" t="s">
-        <v>32</v>
+        <v>40</v>
       </c>
       <c r="B24" s="6" t="s">
         <v>28</v>
@@ -3488,19 +3487,20 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:112" s="16" customFormat="1" ht="10.199999999999999" outlineLevel="1" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:112" s="16" customFormat="1" ht="10.15" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A25" s="6" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="B25" s="6" t="s">
         <v>15</v>
       </c>
       <c r="C25" s="29">
-        <v>45417</v>
+        <f>D24+1</f>
+        <v>45418</v>
       </c>
       <c r="D25" s="30">
         <f t="shared" si="6"/>
-        <v>45417</v>
+        <v>45418</v>
       </c>
       <c r="E25" s="7">
         <v>1</v>
@@ -3509,9 +3509,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:112" s="16" customFormat="1" ht="10.199999999999999" outlineLevel="1" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:112" s="16" customFormat="1" ht="10.15" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A26" s="6" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="B26" s="6" t="s">
         <v>6</v>
@@ -3530,18 +3530,18 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:112" s="16" customFormat="1" ht="10.199999999999999" outlineLevel="1" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:112" s="16" customFormat="1" ht="10.15" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A27" s="6" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="B27" s="6" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="C27" s="29">
         <v>45418</v>
       </c>
       <c r="D27" s="30">
-        <f t="shared" ref="D27:D33" si="7">C27+E27-1</f>
+        <f t="shared" ref="D27:D32" si="7">C27+E27-1</f>
         <v>45431</v>
       </c>
       <c r="E27" s="7">
@@ -3551,9 +3551,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:112" s="16" customFormat="1" ht="10.199999999999999" outlineLevel="1" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:112" s="16" customFormat="1" ht="10.15" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A28" s="6" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="B28" s="6" t="s">
         <v>28</v>
@@ -3572,7 +3572,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:112" s="16" customFormat="1" ht="10.199999999999999" outlineLevel="1" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:112" s="16" customFormat="1" ht="10.15" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A29" s="6" t="s">
         <v>27</v>
       </c>
@@ -3593,19 +3593,20 @@
         <v>1</v>
       </c>
     </row>
-    <row r="30" spans="1:112" s="16" customFormat="1" ht="10.199999999999999" outlineLevel="1" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:112" s="16" customFormat="1" ht="10.15" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A30" s="6" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="B30" s="6" t="s">
         <v>15</v>
       </c>
       <c r="C30" s="29">
-        <v>45424</v>
+        <f>D28+1</f>
+        <v>45432</v>
       </c>
       <c r="D30" s="30">
         <f t="shared" si="7"/>
-        <v>45424</v>
+        <v>45432</v>
       </c>
       <c r="E30" s="7">
         <v>1</v>
@@ -3614,9 +3615,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:112" s="16" customFormat="1" ht="10.199999999999999" outlineLevel="1" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:112" s="16" customFormat="1" ht="10.15" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A31" s="6" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="B31" s="6" t="s">
         <v>15</v>
@@ -3635,9 +3636,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:112" s="16" customFormat="1" ht="10.199999999999999" outlineLevel="1" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:112" s="16" customFormat="1" ht="10.15" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A32" s="6" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="B32" s="6" t="s">
         <v>15</v>
@@ -3656,7 +3657,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:6" s="16" customFormat="1" ht="10.199999999999999" outlineLevel="1" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:6" s="16" customFormat="1" ht="10.15" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A33" s="6"/>
       <c r="B33" s="6"/>
       <c r="C33" s="29"/>
@@ -3666,7 +3667,7 @@
     </row>
   </sheetData>
   <sheetProtection formatCells="0" formatColumns="0" formatRows="0" insertRows="0" deleteRows="0"/>
-  <autoFilter ref="A3:IK33" xr:uid="{00000000-0009-0000-0000-000000000000}">
+  <autoFilter ref="A3:IK33">
     <filterColumn colId="7" showButton="0"/>
     <filterColumn colId="8" showButton="0"/>
     <filterColumn colId="9" showButton="0"/>
@@ -3873,12 +3874,18 @@
     <filterColumn colId="243" showButton="0"/>
   </autoFilter>
   <mergeCells count="34">
-    <mergeCell ref="AJ3:AP3"/>
-    <mergeCell ref="AQ3:AW3"/>
-    <mergeCell ref="H3:N3"/>
-    <mergeCell ref="O3:U3"/>
-    <mergeCell ref="V3:AB3"/>
-    <mergeCell ref="AC3:AI3"/>
+    <mergeCell ref="HX3:ID3"/>
+    <mergeCell ref="AX3:BD3"/>
+    <mergeCell ref="CN3:CT3"/>
+    <mergeCell ref="CU3:DA3"/>
+    <mergeCell ref="DB3:DH3"/>
+    <mergeCell ref="ED3:EJ3"/>
+    <mergeCell ref="BE3:BK3"/>
+    <mergeCell ref="HQ3:HW3"/>
+    <mergeCell ref="GO3:GU3"/>
+    <mergeCell ref="GV3:HB3"/>
+    <mergeCell ref="FT3:FZ3"/>
+    <mergeCell ref="GA3:GG3"/>
     <mergeCell ref="IE3:IK3"/>
     <mergeCell ref="BL3:BR3"/>
     <mergeCell ref="BS3:BY3"/>
@@ -3895,18 +3902,12 @@
     <mergeCell ref="GH3:GN3"/>
     <mergeCell ref="FF3:FL3"/>
     <mergeCell ref="FM3:FS3"/>
-    <mergeCell ref="HX3:ID3"/>
-    <mergeCell ref="AX3:BD3"/>
-    <mergeCell ref="CN3:CT3"/>
-    <mergeCell ref="CU3:DA3"/>
-    <mergeCell ref="DB3:DH3"/>
-    <mergeCell ref="ED3:EJ3"/>
-    <mergeCell ref="BE3:BK3"/>
-    <mergeCell ref="HQ3:HW3"/>
-    <mergeCell ref="GO3:GU3"/>
-    <mergeCell ref="GV3:HB3"/>
-    <mergeCell ref="FT3:FZ3"/>
-    <mergeCell ref="GA3:GG3"/>
+    <mergeCell ref="AJ3:AP3"/>
+    <mergeCell ref="AQ3:AW3"/>
+    <mergeCell ref="H3:N3"/>
+    <mergeCell ref="O3:U3"/>
+    <mergeCell ref="V3:AB3"/>
+    <mergeCell ref="AC3:AI3"/>
   </mergeCells>
   <phoneticPr fontId="4" type="noConversion"/>
   <conditionalFormatting sqref="H4:IK4">
@@ -3947,13 +3948,13 @@
                 <anchor moveWithCells="1">
                   <from>
                     <xdr:col>0</xdr:col>
-                    <xdr:colOff>45720</xdr:colOff>
+                    <xdr:colOff>47625</xdr:colOff>
                     <xdr:row>1</xdr:row>
-                    <xdr:rowOff>22860</xdr:rowOff>
+                    <xdr:rowOff>23813</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>3</xdr:col>
-                    <xdr:colOff>381000</xdr:colOff>
+                    <xdr:colOff>138113</xdr:colOff>
                     <xdr:row>2</xdr:row>
                     <xdr:rowOff>152400</xdr:rowOff>
                   </to>
@@ -3969,7 +3970,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Blad3"/>
   <dimension ref="A1:A2"/>
   <sheetViews>
@@ -3977,14 +3978,14 @@
       <selection activeCell="B49" sqref="B49"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A1" s="25" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A2" s="25" t="s">
         <v>4</v>
       </c>

--- a/doc/planning/planning_gantt.xlsx
+++ b/doc/planning/planning_gantt.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-105" yWindow="-105" windowWidth="23258" windowHeight="12458"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456"/>
   </bookViews>
   <sheets>
     <sheet name="planning" sheetId="13" r:id="rId1"/>
@@ -1289,13 +1289,13 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>0</xdr:col>
-          <xdr:colOff>47625</xdr:colOff>
+          <xdr:colOff>45720</xdr:colOff>
           <xdr:row>1</xdr:row>
-          <xdr:rowOff>23813</xdr:rowOff>
+          <xdr:rowOff>22860</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>3</xdr:col>
-          <xdr:colOff>139212</xdr:colOff>
+          <xdr:colOff>137160</xdr:colOff>
           <xdr:row>2</xdr:row>
           <xdr:rowOff>152400</xdr:rowOff>
         </xdr:to>
@@ -1667,22 +1667,22 @@
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="130" zoomScaleNormal="130" zoomScaleSheetLayoutView="115" workbookViewId="0">
       <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A22" sqref="A22:F24"/>
+      <selection pane="bottomLeft" activeCell="P26" sqref="P26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.46484375" defaultRowHeight="12.75" outlineLevelRow="1" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="11.44140625" defaultRowHeight="13.2" outlineLevelRow="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="30.53125" customWidth="1"/>
+    <col min="1" max="1" width="30.5546875" customWidth="1"/>
     <col min="2" max="2" width="5.6640625" customWidth="1"/>
-    <col min="3" max="3" width="10.1328125" customWidth="1"/>
-    <col min="4" max="4" width="10.46484375" customWidth="1"/>
-    <col min="5" max="5" width="6.1328125" customWidth="1"/>
-    <col min="6" max="6" width="9.1328125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.109375" customWidth="1"/>
+    <col min="4" max="4" width="10.44140625" customWidth="1"/>
+    <col min="5" max="5" width="6.109375" customWidth="1"/>
+    <col min="6" max="6" width="9.109375" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="1" customWidth="1"/>
-    <col min="8" max="245" width="0.46484375" customWidth="1"/>
+    <col min="8" max="245" width="0.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:245" ht="15" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:245" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>10</v>
       </c>
@@ -1694,7 +1694,7 @@
       </c>
       <c r="F1" s="19">
         <f ca="1">TODAY()</f>
-        <v>45398</v>
+        <v>45416</v>
       </c>
       <c r="G1" s="19">
         <v>45323</v>
@@ -1717,7 +1717,7 @@
       <c r="U1" s="17"/>
       <c r="V1" s="17"/>
     </row>
-    <row r="2" spans="1:245" s="1" customFormat="1" ht="6" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:245" s="1" customFormat="1" ht="6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="20"/>
       <c r="B2"/>
       <c r="C2"/>
@@ -2678,7 +2678,7 @@
         <v>45557</v>
       </c>
     </row>
-    <row r="3" spans="1:245" ht="43.5" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:245" ht="43.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="12" t="s">
         <v>8</v>
       </c>
@@ -3039,7 +3039,7 @@
       <c r="IJ3" s="33"/>
       <c r="IK3" s="34"/>
     </row>
-    <row r="4" spans="1:245" s="15" customFormat="1" ht="10.15" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:245" s="15" customFormat="1" ht="10.199999999999999" x14ac:dyDescent="0.2">
       <c r="A4" s="26" t="s">
         <v>11</v>
       </c>
@@ -3060,7 +3060,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:245" s="16" customFormat="1" ht="10.15" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:245" s="16" customFormat="1" ht="10.199999999999999" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A5" s="6" t="s">
         <v>12</v>
       </c>
@@ -3081,7 +3081,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:245" s="16" customFormat="1" ht="10.15" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:245" s="16" customFormat="1" ht="10.199999999999999" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A6" s="6" t="s">
         <v>13</v>
       </c>
@@ -3102,7 +3102,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:245" s="16" customFormat="1" ht="10.15" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:245" s="16" customFormat="1" ht="10.199999999999999" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A7" s="6" t="s">
         <v>21</v>
       </c>
@@ -3124,7 +3124,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:245" s="16" customFormat="1" ht="10.15" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:245" s="16" customFormat="1" ht="10.199999999999999" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A8" s="6" t="s">
         <v>22</v>
       </c>
@@ -3145,7 +3145,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:245" s="16" customFormat="1" ht="10.15" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:245" s="16" customFormat="1" ht="10.199999999999999" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A9" s="6" t="s">
         <v>16</v>
       </c>
@@ -3166,7 +3166,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:245" s="16" customFormat="1" ht="10.15" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:245" s="16" customFormat="1" ht="10.199999999999999" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A10" s="6" t="s">
         <v>17</v>
       </c>
@@ -3188,7 +3188,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:245" s="16" customFormat="1" ht="10.15" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:245" s="16" customFormat="1" ht="10.199999999999999" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A11" s="6" t="s">
         <v>18</v>
       </c>
@@ -3210,7 +3210,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:245" s="16" customFormat="1" ht="10.15" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:245" s="16" customFormat="1" ht="10.199999999999999" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A12" s="6" t="s">
         <v>19</v>
       </c>
@@ -3231,7 +3231,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:245" s="16" customFormat="1" ht="10.15" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:245" s="16" customFormat="1" ht="10.199999999999999" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A13" s="6" t="s">
         <v>23</v>
       </c>
@@ -3252,7 +3252,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:245" s="16" customFormat="1" ht="10.15" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:245" s="16" customFormat="1" ht="10.199999999999999" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A14" s="6" t="s">
         <v>24</v>
       </c>
@@ -3273,7 +3273,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:245" s="16" customFormat="1" ht="10.15" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:245" s="16" customFormat="1" ht="10.199999999999999" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A15" s="6" t="s">
         <v>25</v>
       </c>
@@ -3294,7 +3294,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:245" s="16" customFormat="1" ht="10.15" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:245" s="16" customFormat="1" ht="10.199999999999999" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A16" s="6" t="s">
         <v>37</v>
       </c>
@@ -3316,7 +3316,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:112" s="16" customFormat="1" ht="10.15" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:112" s="16" customFormat="1" ht="10.199999999999999" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A17" s="6" t="s">
         <v>26</v>
       </c>
@@ -3337,7 +3337,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:112" s="16" customFormat="1" ht="10.15" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:112" s="16" customFormat="1" ht="10.199999999999999" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A18" s="6" t="s">
         <v>38</v>
       </c>
@@ -3355,10 +3355,10 @@
         <v>1</v>
       </c>
       <c r="F18" s="8">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
-    <row r="19" spans="1:112" s="16" customFormat="1" ht="10.15" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:112" s="16" customFormat="1" ht="10.199999999999999" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A19" s="6" t="s">
         <v>27</v>
       </c>
@@ -3382,7 +3382,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="20" spans="1:112" s="16" customFormat="1" ht="10.15" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:112" s="16" customFormat="1" ht="10.199999999999999" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A20" s="6" t="s">
         <v>27</v>
       </c>
@@ -3403,7 +3403,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="21" spans="1:112" s="16" customFormat="1" ht="10.15" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:112" s="16" customFormat="1" ht="10.199999999999999" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A21" s="6" t="s">
         <v>29</v>
       </c>
@@ -3424,7 +3424,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:112" s="16" customFormat="1" ht="10.15" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:112" s="16" customFormat="1" ht="10.199999999999999" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A22" s="6" t="s">
         <v>39</v>
       </c>
@@ -3445,7 +3445,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:112" s="16" customFormat="1" ht="10.15" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:112" s="16" customFormat="1" ht="10.199999999999999" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A23" s="6" t="s">
         <v>30</v>
       </c>
@@ -3466,7 +3466,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:112" s="16" customFormat="1" ht="10.15" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:112" s="16" customFormat="1" ht="10.199999999999999" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A24" s="6" t="s">
         <v>40</v>
       </c>
@@ -3487,7 +3487,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:112" s="16" customFormat="1" ht="10.15" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:112" s="16" customFormat="1" ht="10.199999999999999" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A25" s="6" t="s">
         <v>32</v>
       </c>
@@ -3509,7 +3509,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:112" s="16" customFormat="1" ht="10.15" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:112" s="16" customFormat="1" ht="10.199999999999999" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A26" s="6" t="s">
         <v>33</v>
       </c>
@@ -3530,7 +3530,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:112" s="16" customFormat="1" ht="10.15" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:112" s="16" customFormat="1" ht="10.199999999999999" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A27" s="6" t="s">
         <v>33</v>
       </c>
@@ -3551,7 +3551,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:112" s="16" customFormat="1" ht="10.15" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:112" s="16" customFormat="1" ht="10.199999999999999" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A28" s="6" t="s">
         <v>33</v>
       </c>
@@ -3572,7 +3572,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:112" s="16" customFormat="1" ht="10.15" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:112" s="16" customFormat="1" ht="10.199999999999999" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A29" s="6" t="s">
         <v>27</v>
       </c>
@@ -3593,7 +3593,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="30" spans="1:112" s="16" customFormat="1" ht="10.15" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:112" s="16" customFormat="1" ht="10.199999999999999" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A30" s="6" t="s">
         <v>34</v>
       </c>
@@ -3615,7 +3615,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:112" s="16" customFormat="1" ht="10.15" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:112" s="16" customFormat="1" ht="10.199999999999999" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A31" s="6" t="s">
         <v>35</v>
       </c>
@@ -3636,7 +3636,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:112" s="16" customFormat="1" ht="10.15" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:112" s="16" customFormat="1" ht="10.199999999999999" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A32" s="6" t="s">
         <v>36</v>
       </c>
@@ -3657,7 +3657,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:6" s="16" customFormat="1" ht="10.15" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:6" s="16" customFormat="1" ht="10.199999999999999" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A33" s="6"/>
       <c r="B33" s="6"/>
       <c r="C33" s="29"/>
@@ -3874,18 +3874,12 @@
     <filterColumn colId="243" showButton="0"/>
   </autoFilter>
   <mergeCells count="34">
-    <mergeCell ref="HX3:ID3"/>
-    <mergeCell ref="AX3:BD3"/>
-    <mergeCell ref="CN3:CT3"/>
-    <mergeCell ref="CU3:DA3"/>
-    <mergeCell ref="DB3:DH3"/>
-    <mergeCell ref="ED3:EJ3"/>
-    <mergeCell ref="BE3:BK3"/>
-    <mergeCell ref="HQ3:HW3"/>
-    <mergeCell ref="GO3:GU3"/>
-    <mergeCell ref="GV3:HB3"/>
-    <mergeCell ref="FT3:FZ3"/>
-    <mergeCell ref="GA3:GG3"/>
+    <mergeCell ref="AJ3:AP3"/>
+    <mergeCell ref="AQ3:AW3"/>
+    <mergeCell ref="H3:N3"/>
+    <mergeCell ref="O3:U3"/>
+    <mergeCell ref="V3:AB3"/>
+    <mergeCell ref="AC3:AI3"/>
     <mergeCell ref="IE3:IK3"/>
     <mergeCell ref="BL3:BR3"/>
     <mergeCell ref="BS3:BY3"/>
@@ -3902,12 +3896,18 @@
     <mergeCell ref="GH3:GN3"/>
     <mergeCell ref="FF3:FL3"/>
     <mergeCell ref="FM3:FS3"/>
-    <mergeCell ref="AJ3:AP3"/>
-    <mergeCell ref="AQ3:AW3"/>
-    <mergeCell ref="H3:N3"/>
-    <mergeCell ref="O3:U3"/>
-    <mergeCell ref="V3:AB3"/>
-    <mergeCell ref="AC3:AI3"/>
+    <mergeCell ref="HX3:ID3"/>
+    <mergeCell ref="AX3:BD3"/>
+    <mergeCell ref="CN3:CT3"/>
+    <mergeCell ref="CU3:DA3"/>
+    <mergeCell ref="DB3:DH3"/>
+    <mergeCell ref="ED3:EJ3"/>
+    <mergeCell ref="BE3:BK3"/>
+    <mergeCell ref="HQ3:HW3"/>
+    <mergeCell ref="GO3:GU3"/>
+    <mergeCell ref="GV3:HB3"/>
+    <mergeCell ref="FT3:FZ3"/>
+    <mergeCell ref="GA3:GG3"/>
   </mergeCells>
   <phoneticPr fontId="4" type="noConversion"/>
   <conditionalFormatting sqref="H4:IK4">
@@ -3948,13 +3948,13 @@
                 <anchor moveWithCells="1">
                   <from>
                     <xdr:col>0</xdr:col>
-                    <xdr:colOff>47625</xdr:colOff>
+                    <xdr:colOff>45720</xdr:colOff>
                     <xdr:row>1</xdr:row>
-                    <xdr:rowOff>23813</xdr:rowOff>
+                    <xdr:rowOff>22860</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>3</xdr:col>
-                    <xdr:colOff>138113</xdr:colOff>
+                    <xdr:colOff>137160</xdr:colOff>
                     <xdr:row>2</xdr:row>
                     <xdr:rowOff>152400</xdr:rowOff>
                   </to>
@@ -3978,14 +3978,14 @@
       <selection activeCell="B49" sqref="B49"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" s="25" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2" s="25" t="s">
         <v>4</v>
       </c>

--- a/doc/planning/planning_gantt.xlsx
+++ b/doc/planning/planning_gantt.xlsx
@@ -16,9 +16,9 @@
     <sheet name="uitleg" sheetId="16" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">planning!$A$3:$IK$33</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">planning!$A$3:$IK$36</definedName>
     <definedName name="helpRow">planning!#REF!</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">planning!$A$1:$IK$33</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">planning!$A$1:$IK$36</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="0">planning!$1:$3</definedName>
     <definedName name="valuevx">42.314159</definedName>
   </definedNames>
@@ -412,7 +412,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="42">
   <si>
     <t>Start</t>
   </si>
@@ -495,9 +495,6 @@
     <t>team call: prepare interim presentation</t>
   </si>
   <si>
-    <t>unavailable</t>
-  </si>
-  <si>
     <t>R</t>
   </si>
   <si>
@@ -513,9 +510,6 @@
     <t>team call: sprint review</t>
   </si>
   <si>
-    <t>sprint 2: cross validation + reporting</t>
-  </si>
-  <si>
     <t>team call: sprint review + final actions</t>
   </si>
   <si>
@@ -535,6 +529,15 @@
   </si>
   <si>
     <t>sprint 1: map plot (framework selection, notebook impl)</t>
+  </si>
+  <si>
+    <t>sprint 2: cross validation + tweaking + bugfixing</t>
+  </si>
+  <si>
+    <t>final ppt + report drafting</t>
+  </si>
+  <si>
+    <t>unavailable (abroad)</t>
   </si>
 </sst>
 </file>
@@ -545,7 +548,7 @@
     <numFmt numFmtId="164" formatCode="dd\ mmm\ yy"/>
     <numFmt numFmtId="165" formatCode="ddd\ dd/mm/yy"/>
   </numFmts>
-  <fonts count="26" x14ac:knownFonts="1">
+  <fonts count="27" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -713,6 +716,12 @@
       <sz val="10"/>
       <color theme="0"/>
       <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="8"/>
+      <name val="Arial Narrow"/>
       <family val="2"/>
     </font>
   </fonts>
@@ -1019,7 +1028,7 @@
     <xf numFmtId="0" fontId="22" fillId="17" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="35">
+  <cellXfs count="36">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="19" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyProtection="1">
@@ -1115,6 +1124,9 @@
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyProtection="1">
+      <protection locked="0"/>
     </xf>
   </cellXfs>
   <cellStyles count="37">
@@ -1663,11 +1675,11 @@
     <outlinePr summaryBelow="0"/>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:IK33"/>
+  <dimension ref="A1:IK36"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="130" zoomScaleNormal="130" zoomScaleSheetLayoutView="115" workbookViewId="0">
       <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="P26" sqref="P26"/>
+      <selection pane="bottomLeft" activeCell="A27" sqref="A27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.44140625" defaultRowHeight="13.2" outlineLevelRow="1" x14ac:dyDescent="0.25"/>
@@ -1694,7 +1706,7 @@
       </c>
       <c r="F1" s="19">
         <f ca="1">TODAY()</f>
-        <v>45416</v>
+        <v>45431</v>
       </c>
       <c r="G1" s="19">
         <v>45323</v>
@@ -3045,7 +3057,7 @@
       </c>
       <c r="B4" s="3"/>
       <c r="C4" s="27">
-        <f>MIN(C5:C33)</f>
+        <f>MIN(C5:C36)</f>
         <v>45342</v>
       </c>
       <c r="D4" s="28">
@@ -3053,7 +3065,7 @@
         <v>45438</v>
       </c>
       <c r="E4" s="4">
-        <f>MAX(D5:D33)-C4+1</f>
+        <f>MAX(D5:D36)-C4+1</f>
         <v>97</v>
       </c>
       <c r="F4" s="5">
@@ -3296,7 +3308,7 @@
     </row>
     <row r="16" spans="1:245" s="16" customFormat="1" ht="10.199999999999999" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A16" s="6" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="B16" s="6" t="s">
         <v>20</v>
@@ -3339,7 +3351,7 @@
     </row>
     <row r="18" spans="1:112" s="16" customFormat="1" ht="10.199999999999999" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A18" s="6" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="B18" s="6" t="s">
         <v>15</v>
@@ -3359,8 +3371,8 @@
       </c>
     </row>
     <row r="19" spans="1:112" s="16" customFormat="1" ht="10.199999999999999" outlineLevel="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="6" t="s">
-        <v>27</v>
+      <c r="A19" s="35" t="s">
+        <v>41</v>
       </c>
       <c r="B19" s="6" t="s">
         <v>6</v>
@@ -3383,11 +3395,11 @@
       </c>
     </row>
     <row r="20" spans="1:112" s="16" customFormat="1" ht="10.199999999999999" outlineLevel="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="6" t="s">
+      <c r="A20" s="35" t="s">
+        <v>41</v>
+      </c>
+      <c r="B20" s="6" t="s">
         <v>27</v>
-      </c>
-      <c r="B20" s="6" t="s">
-        <v>28</v>
       </c>
       <c r="C20" s="29">
         <v>45403</v>
@@ -3405,7 +3417,7 @@
     </row>
     <row r="21" spans="1:112" s="16" customFormat="1" ht="10.199999999999999" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A21" s="6" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B21" s="6" t="s">
         <v>15</v>
@@ -3421,12 +3433,12 @@
         <v>1</v>
       </c>
       <c r="F21" s="8">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="22" spans="1:112" s="16" customFormat="1" ht="10.199999999999999" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A22" s="6" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="B22" s="6" t="s">
         <v>6</v>
@@ -3442,15 +3454,15 @@
         <v>14</v>
       </c>
       <c r="F22" s="8">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="23" spans="1:112" s="16" customFormat="1" ht="10.199999999999999" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A23" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="B23" s="6" t="s">
         <v>30</v>
-      </c>
-      <c r="B23" s="6" t="s">
-        <v>31</v>
       </c>
       <c r="C23" s="29">
         <v>45404</v>
@@ -3463,15 +3475,15 @@
         <v>14</v>
       </c>
       <c r="F23" s="8">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="24" spans="1:112" s="16" customFormat="1" ht="10.199999999999999" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A24" s="6" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="B24" s="6" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C24" s="29">
         <v>45404</v>
@@ -3484,34 +3496,33 @@
         <v>14</v>
       </c>
       <c r="F24" s="8">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="25" spans="1:112" s="16" customFormat="1" ht="10.199999999999999" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A25" s="6" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B25" s="6" t="s">
         <v>15</v>
       </c>
       <c r="C25" s="29">
-        <f>D24+1</f>
-        <v>45418</v>
+        <v>45421</v>
       </c>
       <c r="D25" s="30">
         <f t="shared" si="6"/>
-        <v>45418</v>
+        <v>45421</v>
       </c>
       <c r="E25" s="7">
         <v>1</v>
       </c>
       <c r="F25" s="8">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="26" spans="1:112" s="16" customFormat="1" ht="10.199999999999999" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A26" s="6" t="s">
-        <v>33</v>
+        <v>39</v>
       </c>
       <c r="B26" s="6" t="s">
         <v>6</v>
@@ -3527,36 +3538,36 @@
         <v>14</v>
       </c>
       <c r="F26" s="8">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="27" spans="1:112" s="16" customFormat="1" ht="10.199999999999999" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A27" s="6" t="s">
-        <v>33</v>
+        <v>39</v>
       </c>
       <c r="B27" s="6" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C27" s="29">
         <v>45418</v>
       </c>
       <c r="D27" s="30">
-        <f t="shared" ref="D27:D32" si="7">C27+E27-1</f>
+        <f t="shared" ref="D27:D35" si="7">C27+E27-1</f>
         <v>45431</v>
       </c>
       <c r="E27" s="7">
         <v>14</v>
       </c>
       <c r="F27" s="8">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="28" spans="1:112" s="16" customFormat="1" ht="10.199999999999999" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A28" s="6" t="s">
-        <v>33</v>
+        <v>39</v>
       </c>
       <c r="B28" s="6" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C28" s="29">
         <v>45418</v>
@@ -3569,12 +3580,12 @@
         <v>14</v>
       </c>
       <c r="F28" s="8">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="29" spans="1:112" s="16" customFormat="1" ht="10.199999999999999" outlineLevel="1" x14ac:dyDescent="0.2">
-      <c r="A29" s="6" t="s">
-        <v>27</v>
+      <c r="A29" s="35" t="s">
+        <v>41</v>
       </c>
       <c r="B29" s="6" t="s">
         <v>6</v>
@@ -3595,42 +3606,42 @@
     </row>
     <row r="30" spans="1:112" s="16" customFormat="1" ht="10.199999999999999" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A30" s="6" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="B30" s="6" t="s">
         <v>15</v>
       </c>
       <c r="C30" s="29">
-        <f>D28+1</f>
-        <v>45432</v>
+        <v>45431</v>
       </c>
       <c r="D30" s="30">
         <f t="shared" si="7"/>
-        <v>45432</v>
+        <v>45431</v>
       </c>
       <c r="E30" s="7">
         <v>1</v>
       </c>
       <c r="F30" s="8">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="31" spans="1:112" s="16" customFormat="1" ht="10.199999999999999" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A31" s="6" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="B31" s="6" t="s">
-        <v>15</v>
+        <v>6</v>
       </c>
       <c r="C31" s="29">
-        <v>45435</v>
+        <f>+D30+1</f>
+        <v>45432</v>
       </c>
       <c r="D31" s="30">
         <f t="shared" si="7"/>
-        <v>45435</v>
+        <v>45436</v>
       </c>
       <c r="E31" s="7">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="F31" s="8">
         <v>0</v>
@@ -3638,36 +3649,101 @@
     </row>
     <row r="32" spans="1:112" s="16" customFormat="1" ht="10.199999999999999" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A32" s="6" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="B32" s="6" t="s">
-        <v>15</v>
+        <v>30</v>
       </c>
       <c r="C32" s="29">
-        <v>45438</v>
+        <f>+C31</f>
+        <v>45432</v>
       </c>
       <c r="D32" s="30">
         <f t="shared" si="7"/>
-        <v>45438</v>
+        <v>45436</v>
       </c>
       <c r="E32" s="7">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="F32" s="8">
         <v>0</v>
       </c>
     </row>
     <row r="33" spans="1:6" s="16" customFormat="1" ht="10.199999999999999" outlineLevel="1" x14ac:dyDescent="0.2">
-      <c r="A33" s="6"/>
-      <c r="B33" s="6"/>
-      <c r="C33" s="29"/>
-      <c r="D33" s="30"/>
-      <c r="E33" s="7"/>
-      <c r="F33" s="8"/>
+      <c r="A33" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="B33" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="C33" s="29">
+        <f>+C32</f>
+        <v>45432</v>
+      </c>
+      <c r="D33" s="30">
+        <f t="shared" si="7"/>
+        <v>45436</v>
+      </c>
+      <c r="E33" s="7">
+        <v>5</v>
+      </c>
+      <c r="F33" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" s="16" customFormat="1" ht="10.199999999999999" outlineLevel="1" x14ac:dyDescent="0.2">
+      <c r="A34" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="B34" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="C34" s="29">
+        <v>45435</v>
+      </c>
+      <c r="D34" s="30">
+        <f t="shared" si="7"/>
+        <v>45435</v>
+      </c>
+      <c r="E34" s="7">
+        <v>1</v>
+      </c>
+      <c r="F34" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" s="16" customFormat="1" ht="10.199999999999999" outlineLevel="1" x14ac:dyDescent="0.2">
+      <c r="A35" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="B35" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="C35" s="29">
+        <v>45438</v>
+      </c>
+      <c r="D35" s="30">
+        <f t="shared" si="7"/>
+        <v>45438</v>
+      </c>
+      <c r="E35" s="7">
+        <v>1</v>
+      </c>
+      <c r="F35" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" s="16" customFormat="1" ht="10.199999999999999" outlineLevel="1" x14ac:dyDescent="0.2">
+      <c r="A36" s="6"/>
+      <c r="B36" s="6"/>
+      <c r="C36" s="29"/>
+      <c r="D36" s="30"/>
+      <c r="E36" s="7"/>
+      <c r="F36" s="8"/>
     </row>
   </sheetData>
   <sheetProtection formatCells="0" formatColumns="0" formatRows="0" insertRows="0" deleteRows="0"/>
-  <autoFilter ref="A3:IK33">
+  <autoFilter ref="A3:IK36">
     <filterColumn colId="7" showButton="0"/>
     <filterColumn colId="8" showButton="0"/>
     <filterColumn colId="9" showButton="0"/>
@@ -3874,12 +3950,18 @@
     <filterColumn colId="243" showButton="0"/>
   </autoFilter>
   <mergeCells count="34">
-    <mergeCell ref="AJ3:AP3"/>
-    <mergeCell ref="AQ3:AW3"/>
-    <mergeCell ref="H3:N3"/>
-    <mergeCell ref="O3:U3"/>
-    <mergeCell ref="V3:AB3"/>
-    <mergeCell ref="AC3:AI3"/>
+    <mergeCell ref="HX3:ID3"/>
+    <mergeCell ref="AX3:BD3"/>
+    <mergeCell ref="CN3:CT3"/>
+    <mergeCell ref="CU3:DA3"/>
+    <mergeCell ref="DB3:DH3"/>
+    <mergeCell ref="ED3:EJ3"/>
+    <mergeCell ref="BE3:BK3"/>
+    <mergeCell ref="HQ3:HW3"/>
+    <mergeCell ref="GO3:GU3"/>
+    <mergeCell ref="GV3:HB3"/>
+    <mergeCell ref="FT3:FZ3"/>
+    <mergeCell ref="GA3:GG3"/>
     <mergeCell ref="IE3:IK3"/>
     <mergeCell ref="BL3:BR3"/>
     <mergeCell ref="BS3:BY3"/>
@@ -3896,18 +3978,12 @@
     <mergeCell ref="GH3:GN3"/>
     <mergeCell ref="FF3:FL3"/>
     <mergeCell ref="FM3:FS3"/>
-    <mergeCell ref="HX3:ID3"/>
-    <mergeCell ref="AX3:BD3"/>
-    <mergeCell ref="CN3:CT3"/>
-    <mergeCell ref="CU3:DA3"/>
-    <mergeCell ref="DB3:DH3"/>
-    <mergeCell ref="ED3:EJ3"/>
-    <mergeCell ref="BE3:BK3"/>
-    <mergeCell ref="HQ3:HW3"/>
-    <mergeCell ref="GO3:GU3"/>
-    <mergeCell ref="GV3:HB3"/>
-    <mergeCell ref="FT3:FZ3"/>
-    <mergeCell ref="GA3:GG3"/>
+    <mergeCell ref="AJ3:AP3"/>
+    <mergeCell ref="AQ3:AW3"/>
+    <mergeCell ref="H3:N3"/>
+    <mergeCell ref="O3:U3"/>
+    <mergeCell ref="V3:AB3"/>
+    <mergeCell ref="AC3:AI3"/>
   </mergeCells>
   <phoneticPr fontId="4" type="noConversion"/>
   <conditionalFormatting sqref="H4:IK4">
@@ -3918,12 +3994,12 @@
       <formula>AND(H$2&gt;=$C4,H$2&lt;=$C4+$E4-1)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H4:IK33">
+  <conditionalFormatting sqref="H4:IK36">
     <cfRule type="expression" dxfId="2" priority="373" stopIfTrue="1">
       <formula>H$2=$F$1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H5:IK33">
+  <conditionalFormatting sqref="H5:IK36">
     <cfRule type="expression" dxfId="1" priority="374" stopIfTrue="1">
       <formula>AND(H$2&gt;=$C5,H$2&lt;$C5+ROUNDDOWN($E5*$F5,0))</formula>
     </cfRule>

--- a/doc/planning/planning_gantt.xlsx
+++ b/doc/planning/planning_gantt.xlsx
@@ -16,9 +16,9 @@
     <sheet name="uitleg" sheetId="16" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">planning!$A$3:$IK$36</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">planning!$A$3:$IK$40</definedName>
     <definedName name="helpRow">planning!#REF!</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">planning!$A$1:$IK$36</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">planning!$A$1:$IK$40</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="0">planning!$1:$3</definedName>
     <definedName name="valuevx">42.314159</definedName>
   </definedNames>
@@ -412,7 +412,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="46">
   <si>
     <t>Start</t>
   </si>
@@ -450,94 +450,106 @@
     <t>Taken</t>
   </si>
   <si>
-    <t>clinic: intro project</t>
+    <t>J+M</t>
+  </si>
+  <si>
+    <t>J+M+R</t>
+  </si>
+  <si>
+    <t>team call: dataset discussion</t>
+  </si>
+  <si>
+    <t>drafting dataset doc</t>
+  </si>
+  <si>
+    <t>review dataset doc</t>
+  </si>
+  <si>
+    <t>dataset doc submission</t>
+  </si>
+  <si>
+    <t>M+R</t>
+  </si>
+  <si>
+    <t>setting up team collab channels (github, whatsapp)</t>
+  </si>
+  <si>
+    <t>setting up dash example code</t>
+  </si>
+  <si>
+    <t>data preprocessing + eda notebook</t>
+  </si>
+  <si>
+    <t>team call: data validation</t>
+  </si>
+  <si>
+    <t>prepare interim presentation</t>
+  </si>
+  <si>
+    <t>team call: prepare interim presentation</t>
+  </si>
+  <si>
+    <t>R</t>
+  </si>
+  <si>
+    <t>sprint 1: bar charts, BAN, popups</t>
+  </si>
+  <si>
+    <t>M</t>
+  </si>
+  <si>
+    <t>team call: sprint review</t>
+  </si>
+  <si>
+    <t>team call: sprint review + final actions</t>
+  </si>
+  <si>
+    <t>deadline final report</t>
+  </si>
+  <si>
+    <t>review interim presentation</t>
+  </si>
+  <si>
+    <t>sprint 1: data processing / aggregation / filters / interactivity</t>
+  </si>
+  <si>
+    <t>sprint 1: map plot (framework selection, notebook impl)</t>
+  </si>
+  <si>
+    <t>sprint 2: cross validation + tweaking + bugfixing</t>
+  </si>
+  <si>
+    <t>final ppt + report drafting</t>
+  </si>
+  <si>
+    <t>unavailable (abroad)</t>
+  </si>
+  <si>
+    <t>team call: dataset and framework</t>
+  </si>
+  <si>
+    <t>clinic 1: intro project</t>
+  </si>
+  <si>
+    <t>clinic 2</t>
+  </si>
+  <si>
+    <t>clinic 3</t>
+  </si>
+  <si>
+    <t>clinic 4</t>
   </si>
   <si>
     <t>team call: debrief clinic</t>
   </si>
   <si>
-    <t>J+M</t>
-  </si>
-  <si>
-    <t>J+M+R</t>
-  </si>
-  <si>
-    <t>team call: dataset discussion</t>
-  </si>
-  <si>
-    <t>drafting dataset doc</t>
-  </si>
-  <si>
-    <t>review dataset doc</t>
-  </si>
-  <si>
-    <t>dataset doc submission</t>
-  </si>
-  <si>
-    <t>M+R</t>
-  </si>
-  <si>
-    <t>setting up team collab channels (github, whatsapp)</t>
-  </si>
-  <si>
-    <t>setting up dash example code</t>
-  </si>
-  <si>
-    <t>data preprocessing + eda notebook</t>
-  </si>
-  <si>
-    <t>team call: data validation</t>
-  </si>
-  <si>
-    <t>prepare interim presentation</t>
-  </si>
-  <si>
-    <t>team call: prepare interim presentation</t>
-  </si>
-  <si>
-    <t>R</t>
-  </si>
-  <si>
-    <t>clinic: interim presentations</t>
-  </si>
-  <si>
-    <t>sprint 1: bar charts, BAN, popups</t>
-  </si>
-  <si>
-    <t>M</t>
-  </si>
-  <si>
-    <t>team call: sprint review</t>
-  </si>
-  <si>
-    <t>team call: sprint review + final actions</t>
-  </si>
-  <si>
-    <t>final project presentation</t>
-  </si>
-  <si>
-    <t>deadline final report</t>
-  </si>
-  <si>
-    <t>review interim presentation</t>
-  </si>
-  <si>
-    <t>online interim presentation</t>
-  </si>
-  <si>
-    <t>sprint 1: data processing / aggregation / filters / interactivity</t>
-  </si>
-  <si>
-    <t>sprint 1: map plot (framework selection, notebook impl)</t>
-  </si>
-  <si>
-    <t>sprint 2: cross validation + tweaking + bugfixing</t>
-  </si>
-  <si>
-    <t>final ppt + report drafting</t>
-  </si>
-  <si>
-    <t>unavailable (abroad)</t>
+    <t>interim presentation</t>
+  </si>
+  <si>
+    <t>final presentation</t>
+  </si>
+  <si>
+    <t>team call: consolidation</t>
   </si>
 </sst>
 </file>
@@ -557,13 +569,6 @@
     <font>
       <sz val="10"/>
       <name val="Arial"/>
-      <charset val="204"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="2"/>
       <charset val="204"/>
     </font>
     <font>
@@ -596,13 +601,6 @@
       <sz val="8"/>
       <color indexed="81"/>
       <name val="Tahoma"/>
-      <family val="2"/>
-      <charset val="204"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="8"/>
-      <name val="Arial"/>
       <family val="2"/>
       <charset val="204"/>
     </font>
@@ -724,8 +722,21 @@
       <name val="Arial Narrow"/>
       <family val="2"/>
     </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="204"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="23">
+  <fills count="25">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -838,6 +849,18 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor indexed="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.79998168889431442"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -991,132 +1014,126 @@
   </borders>
   <cellStyleXfs count="37">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="18" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="11" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="17" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="18" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="11" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="17" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="36">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="19" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyProtection="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="19" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
+    <xf numFmtId="0" fontId="7" fillId="19" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="1" fontId="4" fillId="20" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="1" fontId="3" fillId="20" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="9" fontId="4" fillId="20" borderId="8" xfId="36" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="9" fontId="3" fillId="20" borderId="8" xfId="36" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyProtection="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="1" fontId="4" fillId="21" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="1" fontId="3" fillId="21" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="9" fontId="4" fillId="21" borderId="8" xfId="36" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="9" fontId="3" fillId="21" borderId="8" xfId="36" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="14" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="14" fontId="12" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
+    <xf numFmtId="14" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="14" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="19" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
+    <xf numFmtId="0" fontId="3" fillId="19" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyProtection="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="24" fillId="22" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="22" fillId="22" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="14" fontId="23" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyProtection="1">
+    <xf numFmtId="14" fontId="21" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="14" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="10" fillId="19" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="8" fillId="19" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="165" fontId="4" fillId="20" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="165" fontId="3" fillId="20" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="165" fontId="4" fillId="19" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="165" fontId="3" fillId="19" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="165" fontId="4" fillId="21" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="165" fontId="3" fillId="21" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="165" fontId="4" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="165" fontId="3" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="23" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="24" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
@@ -1125,8 +1142,14 @@
     <xf numFmtId="164" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyProtection="1">
-      <protection locked="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" textRotation="90"/>
     </xf>
   </cellXfs>
   <cellStyles count="37">
@@ -1291,7 +1314,7 @@
 </file>
 
 <file path=xl/ctrlProps/ctrlProp1.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="Scroll" dx="16" fmlaLink="$E$1" horiz="1" max="200" page="10" val="0"/>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="Scroll" dx="16" fmlaLink="$E$1" horiz="1" max="200" page="10" val="2"/>
 </file>
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1675,11 +1698,11 @@
     <outlinePr summaryBelow="0"/>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:IK36"/>
+  <dimension ref="A1:IK40"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="130" zoomScaleNormal="130" zoomScaleSheetLayoutView="115" workbookViewId="0">
       <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A27" sqref="A27"/>
+      <selection pane="bottomLeft" activeCell="DP11" sqref="DP11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.44140625" defaultRowHeight="13.2" outlineLevelRow="1" x14ac:dyDescent="0.25"/>
@@ -1688,8 +1711,8 @@
     <col min="2" max="2" width="5.6640625" customWidth="1"/>
     <col min="3" max="3" width="10.109375" customWidth="1"/>
     <col min="4" max="4" width="10.44140625" customWidth="1"/>
-    <col min="5" max="5" width="6.109375" customWidth="1"/>
-    <col min="6" max="6" width="9.109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="5.44140625" customWidth="1"/>
+    <col min="6" max="6" width="5.5546875" customWidth="1"/>
     <col min="7" max="7" width="1" customWidth="1"/>
     <col min="8" max="245" width="0.44140625" customWidth="1"/>
   </cols>
@@ -1698,1391 +1721,1391 @@
       <c r="A1" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="D1" s="31">
+      <c r="D1" s="26">
         <v>0</v>
       </c>
-      <c r="E1" s="17">
-        <v>0</v>
-      </c>
-      <c r="F1" s="19">
+      <c r="E1" s="14">
+        <v>2</v>
+      </c>
+      <c r="F1" s="16">
         <f ca="1">TODAY()</f>
         <v>45431</v>
       </c>
-      <c r="G1" s="19">
+      <c r="G1" s="16">
         <v>45323</v>
       </c>
-      <c r="H1" s="18">
+      <c r="H1" s="15">
         <v>2</v>
       </c>
-      <c r="I1" s="17"/>
-      <c r="J1" s="17"/>
-      <c r="K1" s="17"/>
-      <c r="L1" s="17"/>
-      <c r="M1" s="17"/>
-      <c r="N1" s="17"/>
-      <c r="O1" s="17"/>
-      <c r="P1" s="17"/>
-      <c r="Q1" s="17"/>
-      <c r="R1" s="17"/>
-      <c r="S1" s="17"/>
-      <c r="T1" s="17"/>
-      <c r="U1" s="17"/>
-      <c r="V1" s="17"/>
+      <c r="I1" s="14"/>
+      <c r="J1" s="14"/>
+      <c r="K1" s="14"/>
+      <c r="L1" s="14"/>
+      <c r="M1" s="14"/>
+      <c r="N1" s="14"/>
+      <c r="O1" s="14"/>
+      <c r="P1" s="14"/>
+      <c r="Q1" s="14"/>
+      <c r="R1" s="14"/>
+      <c r="S1" s="14"/>
+      <c r="T1" s="14"/>
+      <c r="U1" s="14"/>
+      <c r="V1" s="14"/>
     </row>
     <row r="2" spans="1:245" s="1" customFormat="1" ht="6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="20"/>
+      <c r="A2" s="17"/>
       <c r="B2"/>
       <c r="C2"/>
-      <c r="D2" s="21"/>
-      <c r="E2" s="22"/>
+      <c r="D2" s="18"/>
+      <c r="E2" s="19"/>
       <c r="F2"/>
       <c r="G2"/>
       <c r="H2" s="9">
         <f>(G1-WEEKDAY(G1,1)+H1)+7*E1</f>
-        <v>45320</v>
+        <v>45334</v>
       </c>
       <c r="I2" s="10">
         <f t="shared" ref="I2:BT2" si="0">H2+1</f>
-        <v>45321</v>
+        <v>45335</v>
       </c>
       <c r="J2" s="10">
         <f t="shared" si="0"/>
-        <v>45322</v>
+        <v>45336</v>
       </c>
       <c r="K2" s="10">
         <f t="shared" si="0"/>
-        <v>45323</v>
+        <v>45337</v>
       </c>
       <c r="L2" s="10">
         <f t="shared" si="0"/>
-        <v>45324</v>
+        <v>45338</v>
       </c>
       <c r="M2" s="10">
         <f t="shared" si="0"/>
-        <v>45325</v>
+        <v>45339</v>
       </c>
       <c r="N2" s="10">
         <f t="shared" si="0"/>
-        <v>45326</v>
+        <v>45340</v>
       </c>
       <c r="O2" s="10">
         <f t="shared" si="0"/>
-        <v>45327</v>
+        <v>45341</v>
       </c>
       <c r="P2" s="10">
         <f t="shared" si="0"/>
-        <v>45328</v>
+        <v>45342</v>
       </c>
       <c r="Q2" s="10">
         <f t="shared" si="0"/>
-        <v>45329</v>
+        <v>45343</v>
       </c>
       <c r="R2" s="10">
         <f t="shared" si="0"/>
-        <v>45330</v>
+        <v>45344</v>
       </c>
       <c r="S2" s="10">
         <f t="shared" si="0"/>
-        <v>45331</v>
+        <v>45345</v>
       </c>
       <c r="T2" s="10">
         <f t="shared" si="0"/>
-        <v>45332</v>
+        <v>45346</v>
       </c>
       <c r="U2" s="10">
         <f t="shared" si="0"/>
-        <v>45333</v>
+        <v>45347</v>
       </c>
       <c r="V2" s="10">
         <f t="shared" si="0"/>
-        <v>45334</v>
+        <v>45348</v>
       </c>
       <c r="W2" s="10">
         <f t="shared" si="0"/>
-        <v>45335</v>
+        <v>45349</v>
       </c>
       <c r="X2" s="10">
         <f t="shared" si="0"/>
-        <v>45336</v>
+        <v>45350</v>
       </c>
       <c r="Y2" s="10">
         <f t="shared" si="0"/>
-        <v>45337</v>
+        <v>45351</v>
       </c>
       <c r="Z2" s="10">
         <f t="shared" si="0"/>
-        <v>45338</v>
+        <v>45352</v>
       </c>
       <c r="AA2" s="10">
         <f t="shared" si="0"/>
-        <v>45339</v>
+        <v>45353</v>
       </c>
       <c r="AB2" s="10">
         <f t="shared" si="0"/>
-        <v>45340</v>
+        <v>45354</v>
       </c>
       <c r="AC2" s="10">
         <f t="shared" si="0"/>
-        <v>45341</v>
+        <v>45355</v>
       </c>
       <c r="AD2" s="10">
         <f t="shared" si="0"/>
-        <v>45342</v>
+        <v>45356</v>
       </c>
       <c r="AE2" s="10">
         <f t="shared" si="0"/>
-        <v>45343</v>
+        <v>45357</v>
       </c>
       <c r="AF2" s="10">
         <f t="shared" si="0"/>
-        <v>45344</v>
+        <v>45358</v>
       </c>
       <c r="AG2" s="10">
         <f t="shared" si="0"/>
-        <v>45345</v>
+        <v>45359</v>
       </c>
       <c r="AH2" s="10">
         <f t="shared" si="0"/>
-        <v>45346</v>
+        <v>45360</v>
       </c>
       <c r="AI2" s="10">
         <f t="shared" si="0"/>
-        <v>45347</v>
+        <v>45361</v>
       </c>
       <c r="AJ2" s="10">
         <f t="shared" si="0"/>
-        <v>45348</v>
+        <v>45362</v>
       </c>
       <c r="AK2" s="10">
         <f t="shared" si="0"/>
-        <v>45349</v>
+        <v>45363</v>
       </c>
       <c r="AL2" s="10">
         <f t="shared" si="0"/>
-        <v>45350</v>
+        <v>45364</v>
       </c>
       <c r="AM2" s="10">
         <f t="shared" si="0"/>
-        <v>45351</v>
+        <v>45365</v>
       </c>
       <c r="AN2" s="10">
         <f t="shared" si="0"/>
-        <v>45352</v>
+        <v>45366</v>
       </c>
       <c r="AO2" s="10">
         <f t="shared" si="0"/>
-        <v>45353</v>
+        <v>45367</v>
       </c>
       <c r="AP2" s="10">
         <f t="shared" si="0"/>
-        <v>45354</v>
+        <v>45368</v>
       </c>
       <c r="AQ2" s="10">
         <f t="shared" si="0"/>
-        <v>45355</v>
+        <v>45369</v>
       </c>
       <c r="AR2" s="10">
         <f t="shared" si="0"/>
-        <v>45356</v>
+        <v>45370</v>
       </c>
       <c r="AS2" s="10">
         <f t="shared" si="0"/>
-        <v>45357</v>
+        <v>45371</v>
       </c>
       <c r="AT2" s="10">
         <f t="shared" si="0"/>
-        <v>45358</v>
+        <v>45372</v>
       </c>
       <c r="AU2" s="10">
         <f t="shared" si="0"/>
-        <v>45359</v>
+        <v>45373</v>
       </c>
       <c r="AV2" s="10">
         <f t="shared" si="0"/>
-        <v>45360</v>
+        <v>45374</v>
       </c>
       <c r="AW2" s="10">
         <f t="shared" si="0"/>
-        <v>45361</v>
+        <v>45375</v>
       </c>
       <c r="AX2" s="10">
         <f t="shared" si="0"/>
-        <v>45362</v>
+        <v>45376</v>
       </c>
       <c r="AY2" s="10">
         <f t="shared" si="0"/>
-        <v>45363</v>
+        <v>45377</v>
       </c>
       <c r="AZ2" s="10">
         <f t="shared" si="0"/>
-        <v>45364</v>
+        <v>45378</v>
       </c>
       <c r="BA2" s="10">
         <f t="shared" si="0"/>
-        <v>45365</v>
+        <v>45379</v>
       </c>
       <c r="BB2" s="10">
         <f t="shared" si="0"/>
-        <v>45366</v>
+        <v>45380</v>
       </c>
       <c r="BC2" s="10">
         <f t="shared" si="0"/>
-        <v>45367</v>
+        <v>45381</v>
       </c>
       <c r="BD2" s="10">
         <f t="shared" si="0"/>
-        <v>45368</v>
+        <v>45382</v>
       </c>
       <c r="BE2" s="10">
         <f t="shared" si="0"/>
-        <v>45369</v>
+        <v>45383</v>
       </c>
       <c r="BF2" s="10">
         <f t="shared" si="0"/>
-        <v>45370</v>
+        <v>45384</v>
       </c>
       <c r="BG2" s="10">
         <f t="shared" si="0"/>
-        <v>45371</v>
+        <v>45385</v>
       </c>
       <c r="BH2" s="10">
         <f t="shared" si="0"/>
-        <v>45372</v>
+        <v>45386</v>
       </c>
       <c r="BI2" s="10">
         <f t="shared" si="0"/>
-        <v>45373</v>
+        <v>45387</v>
       </c>
       <c r="BJ2" s="10">
         <f t="shared" si="0"/>
-        <v>45374</v>
+        <v>45388</v>
       </c>
       <c r="BK2" s="10">
         <f t="shared" si="0"/>
-        <v>45375</v>
+        <v>45389</v>
       </c>
       <c r="BL2" s="10">
         <f t="shared" si="0"/>
-        <v>45376</v>
+        <v>45390</v>
       </c>
       <c r="BM2" s="10">
         <f t="shared" si="0"/>
-        <v>45377</v>
+        <v>45391</v>
       </c>
       <c r="BN2" s="10">
         <f t="shared" si="0"/>
-        <v>45378</v>
+        <v>45392</v>
       </c>
       <c r="BO2" s="10">
         <f t="shared" si="0"/>
-        <v>45379</v>
+        <v>45393</v>
       </c>
       <c r="BP2" s="10">
         <f t="shared" si="0"/>
-        <v>45380</v>
+        <v>45394</v>
       </c>
       <c r="BQ2" s="10">
         <f t="shared" si="0"/>
-        <v>45381</v>
+        <v>45395</v>
       </c>
       <c r="BR2" s="10">
         <f t="shared" si="0"/>
-        <v>45382</v>
+        <v>45396</v>
       </c>
       <c r="BS2" s="10">
         <f t="shared" si="0"/>
-        <v>45383</v>
+        <v>45397</v>
       </c>
       <c r="BT2" s="10">
         <f t="shared" si="0"/>
-        <v>45384</v>
+        <v>45398</v>
       </c>
       <c r="BU2" s="10">
         <f t="shared" ref="BU2:EF2" si="1">BT2+1</f>
-        <v>45385</v>
+        <v>45399</v>
       </c>
       <c r="BV2" s="10">
         <f t="shared" si="1"/>
-        <v>45386</v>
+        <v>45400</v>
       </c>
       <c r="BW2" s="10">
         <f t="shared" si="1"/>
-        <v>45387</v>
+        <v>45401</v>
       </c>
       <c r="BX2" s="10">
         <f t="shared" si="1"/>
-        <v>45388</v>
+        <v>45402</v>
       </c>
       <c r="BY2" s="10">
         <f t="shared" si="1"/>
-        <v>45389</v>
+        <v>45403</v>
       </c>
       <c r="BZ2" s="10">
         <f t="shared" si="1"/>
-        <v>45390</v>
+        <v>45404</v>
       </c>
       <c r="CA2" s="10">
         <f t="shared" si="1"/>
-        <v>45391</v>
+        <v>45405</v>
       </c>
       <c r="CB2" s="10">
         <f t="shared" si="1"/>
-        <v>45392</v>
+        <v>45406</v>
       </c>
       <c r="CC2" s="10">
         <f t="shared" si="1"/>
-        <v>45393</v>
+        <v>45407</v>
       </c>
       <c r="CD2" s="10">
         <f t="shared" si="1"/>
-        <v>45394</v>
+        <v>45408</v>
       </c>
       <c r="CE2" s="10">
         <f t="shared" si="1"/>
-        <v>45395</v>
+        <v>45409</v>
       </c>
       <c r="CF2" s="10">
         <f t="shared" si="1"/>
-        <v>45396</v>
+        <v>45410</v>
       </c>
       <c r="CG2" s="10">
         <f t="shared" si="1"/>
-        <v>45397</v>
+        <v>45411</v>
       </c>
       <c r="CH2" s="10">
         <f t="shared" si="1"/>
-        <v>45398</v>
+        <v>45412</v>
       </c>
       <c r="CI2" s="10">
         <f t="shared" si="1"/>
-        <v>45399</v>
+        <v>45413</v>
       </c>
       <c r="CJ2" s="10">
         <f t="shared" si="1"/>
-        <v>45400</v>
+        <v>45414</v>
       </c>
       <c r="CK2" s="10">
         <f t="shared" si="1"/>
-        <v>45401</v>
+        <v>45415</v>
       </c>
       <c r="CL2" s="10">
         <f t="shared" si="1"/>
-        <v>45402</v>
+        <v>45416</v>
       </c>
       <c r="CM2" s="10">
         <f t="shared" si="1"/>
-        <v>45403</v>
+        <v>45417</v>
       </c>
       <c r="CN2" s="10">
         <f t="shared" si="1"/>
-        <v>45404</v>
+        <v>45418</v>
       </c>
       <c r="CO2" s="10">
         <f t="shared" si="1"/>
-        <v>45405</v>
+        <v>45419</v>
       </c>
       <c r="CP2" s="10">
         <f t="shared" si="1"/>
-        <v>45406</v>
+        <v>45420</v>
       </c>
       <c r="CQ2" s="10">
         <f t="shared" si="1"/>
-        <v>45407</v>
+        <v>45421</v>
       </c>
       <c r="CR2" s="10">
         <f t="shared" si="1"/>
-        <v>45408</v>
+        <v>45422</v>
       </c>
       <c r="CS2" s="10">
         <f t="shared" si="1"/>
-        <v>45409</v>
+        <v>45423</v>
       </c>
       <c r="CT2" s="10">
         <f t="shared" si="1"/>
-        <v>45410</v>
+        <v>45424</v>
       </c>
       <c r="CU2" s="10">
         <f t="shared" si="1"/>
-        <v>45411</v>
+        <v>45425</v>
       </c>
       <c r="CV2" s="10">
         <f t="shared" si="1"/>
-        <v>45412</v>
+        <v>45426</v>
       </c>
       <c r="CW2" s="10">
         <f t="shared" si="1"/>
-        <v>45413</v>
+        <v>45427</v>
       </c>
       <c r="CX2" s="10">
         <f t="shared" si="1"/>
-        <v>45414</v>
+        <v>45428</v>
       </c>
       <c r="CY2" s="10">
         <f t="shared" si="1"/>
-        <v>45415</v>
+        <v>45429</v>
       </c>
       <c r="CZ2" s="10">
         <f t="shared" si="1"/>
-        <v>45416</v>
+        <v>45430</v>
       </c>
       <c r="DA2" s="10">
         <f t="shared" si="1"/>
-        <v>45417</v>
+        <v>45431</v>
       </c>
       <c r="DB2" s="10">
         <f t="shared" si="1"/>
-        <v>45418</v>
+        <v>45432</v>
       </c>
       <c r="DC2" s="10">
         <f t="shared" si="1"/>
-        <v>45419</v>
+        <v>45433</v>
       </c>
       <c r="DD2" s="10">
         <f t="shared" si="1"/>
-        <v>45420</v>
+        <v>45434</v>
       </c>
       <c r="DE2" s="10">
         <f t="shared" si="1"/>
-        <v>45421</v>
+        <v>45435</v>
       </c>
       <c r="DF2" s="10">
         <f t="shared" si="1"/>
-        <v>45422</v>
+        <v>45436</v>
       </c>
       <c r="DG2" s="10">
         <f t="shared" si="1"/>
-        <v>45423</v>
+        <v>45437</v>
       </c>
       <c r="DH2" s="10">
         <f t="shared" si="1"/>
-        <v>45424</v>
+        <v>45438</v>
       </c>
       <c r="DI2" s="10">
         <f t="shared" si="1"/>
-        <v>45425</v>
+        <v>45439</v>
       </c>
       <c r="DJ2" s="10">
         <f t="shared" si="1"/>
-        <v>45426</v>
+        <v>45440</v>
       </c>
       <c r="DK2" s="10">
         <f t="shared" si="1"/>
-        <v>45427</v>
+        <v>45441</v>
       </c>
       <c r="DL2" s="10">
         <f t="shared" si="1"/>
-        <v>45428</v>
+        <v>45442</v>
       </c>
       <c r="DM2" s="10">
         <f t="shared" si="1"/>
-        <v>45429</v>
+        <v>45443</v>
       </c>
       <c r="DN2" s="10">
         <f t="shared" si="1"/>
-        <v>45430</v>
+        <v>45444</v>
       </c>
       <c r="DO2" s="10">
         <f t="shared" si="1"/>
-        <v>45431</v>
+        <v>45445</v>
       </c>
       <c r="DP2" s="10">
         <f t="shared" si="1"/>
-        <v>45432</v>
+        <v>45446</v>
       </c>
       <c r="DQ2" s="10">
         <f t="shared" si="1"/>
-        <v>45433</v>
+        <v>45447</v>
       </c>
       <c r="DR2" s="10">
         <f t="shared" si="1"/>
-        <v>45434</v>
+        <v>45448</v>
       </c>
       <c r="DS2" s="10">
         <f t="shared" si="1"/>
-        <v>45435</v>
+        <v>45449</v>
       </c>
       <c r="DT2" s="10">
         <f t="shared" si="1"/>
-        <v>45436</v>
+        <v>45450</v>
       </c>
       <c r="DU2" s="10">
         <f t="shared" si="1"/>
-        <v>45437</v>
+        <v>45451</v>
       </c>
       <c r="DV2" s="10">
         <f t="shared" si="1"/>
-        <v>45438</v>
+        <v>45452</v>
       </c>
       <c r="DW2" s="10">
         <f t="shared" si="1"/>
-        <v>45439</v>
+        <v>45453</v>
       </c>
       <c r="DX2" s="10">
         <f t="shared" si="1"/>
-        <v>45440</v>
+        <v>45454</v>
       </c>
       <c r="DY2" s="10">
         <f t="shared" si="1"/>
-        <v>45441</v>
+        <v>45455</v>
       </c>
       <c r="DZ2" s="10">
         <f t="shared" si="1"/>
-        <v>45442</v>
+        <v>45456</v>
       </c>
       <c r="EA2" s="10">
         <f t="shared" si="1"/>
-        <v>45443</v>
+        <v>45457</v>
       </c>
       <c r="EB2" s="10">
         <f t="shared" si="1"/>
-        <v>45444</v>
+        <v>45458</v>
       </c>
       <c r="EC2" s="10">
         <f t="shared" si="1"/>
-        <v>45445</v>
+        <v>45459</v>
       </c>
       <c r="ED2" s="10">
         <f t="shared" si="1"/>
-        <v>45446</v>
+        <v>45460</v>
       </c>
       <c r="EE2" s="10">
         <f t="shared" si="1"/>
-        <v>45447</v>
+        <v>45461</v>
       </c>
       <c r="EF2" s="10">
         <f t="shared" si="1"/>
-        <v>45448</v>
+        <v>45462</v>
       </c>
       <c r="EG2" s="10">
         <f t="shared" ref="EG2:GR2" si="2">EF2+1</f>
-        <v>45449</v>
+        <v>45463</v>
       </c>
       <c r="EH2" s="10">
         <f t="shared" si="2"/>
-        <v>45450</v>
+        <v>45464</v>
       </c>
       <c r="EI2" s="10">
         <f t="shared" si="2"/>
-        <v>45451</v>
+        <v>45465</v>
       </c>
       <c r="EJ2" s="10">
         <f t="shared" si="2"/>
-        <v>45452</v>
+        <v>45466</v>
       </c>
       <c r="EK2" s="10">
         <f t="shared" si="2"/>
-        <v>45453</v>
+        <v>45467</v>
       </c>
       <c r="EL2" s="10">
         <f t="shared" si="2"/>
-        <v>45454</v>
+        <v>45468</v>
       </c>
       <c r="EM2" s="10">
         <f t="shared" si="2"/>
-        <v>45455</v>
+        <v>45469</v>
       </c>
       <c r="EN2" s="10">
         <f t="shared" si="2"/>
-        <v>45456</v>
+        <v>45470</v>
       </c>
       <c r="EO2" s="10">
         <f t="shared" si="2"/>
-        <v>45457</v>
+        <v>45471</v>
       </c>
       <c r="EP2" s="10">
         <f t="shared" si="2"/>
-        <v>45458</v>
+        <v>45472</v>
       </c>
       <c r="EQ2" s="10">
         <f t="shared" si="2"/>
-        <v>45459</v>
+        <v>45473</v>
       </c>
       <c r="ER2" s="10">
         <f t="shared" si="2"/>
-        <v>45460</v>
+        <v>45474</v>
       </c>
       <c r="ES2" s="10">
         <f t="shared" si="2"/>
-        <v>45461</v>
+        <v>45475</v>
       </c>
       <c r="ET2" s="10">
         <f t="shared" si="2"/>
-        <v>45462</v>
+        <v>45476</v>
       </c>
       <c r="EU2" s="10">
         <f t="shared" si="2"/>
-        <v>45463</v>
+        <v>45477</v>
       </c>
       <c r="EV2" s="10">
         <f t="shared" si="2"/>
-        <v>45464</v>
+        <v>45478</v>
       </c>
       <c r="EW2" s="10">
         <f t="shared" si="2"/>
-        <v>45465</v>
+        <v>45479</v>
       </c>
       <c r="EX2" s="10">
         <f t="shared" si="2"/>
-        <v>45466</v>
+        <v>45480</v>
       </c>
       <c r="EY2" s="10">
         <f t="shared" si="2"/>
-        <v>45467</v>
+        <v>45481</v>
       </c>
       <c r="EZ2" s="10">
         <f t="shared" si="2"/>
-        <v>45468</v>
+        <v>45482</v>
       </c>
       <c r="FA2" s="10">
         <f t="shared" si="2"/>
-        <v>45469</v>
+        <v>45483</v>
       </c>
       <c r="FB2" s="10">
         <f t="shared" si="2"/>
-        <v>45470</v>
+        <v>45484</v>
       </c>
       <c r="FC2" s="10">
         <f t="shared" si="2"/>
-        <v>45471</v>
+        <v>45485</v>
       </c>
       <c r="FD2" s="10">
         <f t="shared" si="2"/>
-        <v>45472</v>
+        <v>45486</v>
       </c>
       <c r="FE2" s="10">
         <f t="shared" si="2"/>
-        <v>45473</v>
+        <v>45487</v>
       </c>
       <c r="FF2" s="10">
         <f t="shared" si="2"/>
-        <v>45474</v>
+        <v>45488</v>
       </c>
       <c r="FG2" s="10">
         <f t="shared" si="2"/>
-        <v>45475</v>
+        <v>45489</v>
       </c>
       <c r="FH2" s="10">
         <f t="shared" si="2"/>
-        <v>45476</v>
+        <v>45490</v>
       </c>
       <c r="FI2" s="10">
         <f t="shared" si="2"/>
-        <v>45477</v>
+        <v>45491</v>
       </c>
       <c r="FJ2" s="10">
         <f t="shared" si="2"/>
-        <v>45478</v>
+        <v>45492</v>
       </c>
       <c r="FK2" s="10">
         <f t="shared" si="2"/>
-        <v>45479</v>
+        <v>45493</v>
       </c>
       <c r="FL2" s="10">
         <f t="shared" si="2"/>
-        <v>45480</v>
+        <v>45494</v>
       </c>
       <c r="FM2" s="10">
         <f t="shared" si="2"/>
-        <v>45481</v>
+        <v>45495</v>
       </c>
       <c r="FN2" s="10">
         <f t="shared" si="2"/>
-        <v>45482</v>
+        <v>45496</v>
       </c>
       <c r="FO2" s="10">
         <f t="shared" si="2"/>
-        <v>45483</v>
+        <v>45497</v>
       </c>
       <c r="FP2" s="10">
         <f t="shared" si="2"/>
-        <v>45484</v>
+        <v>45498</v>
       </c>
       <c r="FQ2" s="10">
         <f t="shared" si="2"/>
-        <v>45485</v>
+        <v>45499</v>
       </c>
       <c r="FR2" s="10">
         <f t="shared" si="2"/>
-        <v>45486</v>
+        <v>45500</v>
       </c>
       <c r="FS2" s="10">
         <f t="shared" si="2"/>
-        <v>45487</v>
+        <v>45501</v>
       </c>
       <c r="FT2" s="10">
         <f t="shared" si="2"/>
-        <v>45488</v>
+        <v>45502</v>
       </c>
       <c r="FU2" s="10">
         <f t="shared" si="2"/>
-        <v>45489</v>
+        <v>45503</v>
       </c>
       <c r="FV2" s="10">
         <f t="shared" si="2"/>
-        <v>45490</v>
+        <v>45504</v>
       </c>
       <c r="FW2" s="10">
         <f t="shared" si="2"/>
-        <v>45491</v>
+        <v>45505</v>
       </c>
       <c r="FX2" s="10">
         <f t="shared" si="2"/>
-        <v>45492</v>
+        <v>45506</v>
       </c>
       <c r="FY2" s="10">
         <f t="shared" si="2"/>
-        <v>45493</v>
+        <v>45507</v>
       </c>
       <c r="FZ2" s="10">
         <f t="shared" si="2"/>
-        <v>45494</v>
+        <v>45508</v>
       </c>
       <c r="GA2" s="10">
         <f t="shared" si="2"/>
-        <v>45495</v>
+        <v>45509</v>
       </c>
       <c r="GB2" s="10">
         <f t="shared" si="2"/>
-        <v>45496</v>
+        <v>45510</v>
       </c>
       <c r="GC2" s="10">
         <f t="shared" si="2"/>
-        <v>45497</v>
+        <v>45511</v>
       </c>
       <c r="GD2" s="10">
         <f t="shared" si="2"/>
-        <v>45498</v>
+        <v>45512</v>
       </c>
       <c r="GE2" s="10">
         <f t="shared" si="2"/>
-        <v>45499</v>
+        <v>45513</v>
       </c>
       <c r="GF2" s="10">
         <f t="shared" si="2"/>
-        <v>45500</v>
+        <v>45514</v>
       </c>
       <c r="GG2" s="10">
         <f t="shared" si="2"/>
-        <v>45501</v>
+        <v>45515</v>
       </c>
       <c r="GH2" s="10">
         <f t="shared" si="2"/>
-        <v>45502</v>
+        <v>45516</v>
       </c>
       <c r="GI2" s="10">
         <f t="shared" si="2"/>
-        <v>45503</v>
+        <v>45517</v>
       </c>
       <c r="GJ2" s="10">
         <f t="shared" si="2"/>
-        <v>45504</v>
+        <v>45518</v>
       </c>
       <c r="GK2" s="10">
         <f t="shared" si="2"/>
-        <v>45505</v>
+        <v>45519</v>
       </c>
       <c r="GL2" s="10">
         <f t="shared" si="2"/>
-        <v>45506</v>
+        <v>45520</v>
       </c>
       <c r="GM2" s="10">
         <f t="shared" si="2"/>
-        <v>45507</v>
+        <v>45521</v>
       </c>
       <c r="GN2" s="10">
         <f t="shared" si="2"/>
-        <v>45508</v>
+        <v>45522</v>
       </c>
       <c r="GO2" s="10">
         <f t="shared" si="2"/>
-        <v>45509</v>
+        <v>45523</v>
       </c>
       <c r="GP2" s="10">
         <f t="shared" si="2"/>
-        <v>45510</v>
+        <v>45524</v>
       </c>
       <c r="GQ2" s="10">
         <f t="shared" si="2"/>
-        <v>45511</v>
+        <v>45525</v>
       </c>
       <c r="GR2" s="10">
         <f t="shared" si="2"/>
-        <v>45512</v>
+        <v>45526</v>
       </c>
       <c r="GS2" s="10">
         <f t="shared" ref="GS2:IK2" si="3">GR2+1</f>
-        <v>45513</v>
+        <v>45527</v>
       </c>
       <c r="GT2" s="10">
         <f t="shared" si="3"/>
-        <v>45514</v>
+        <v>45528</v>
       </c>
       <c r="GU2" s="10">
         <f t="shared" si="3"/>
-        <v>45515</v>
+        <v>45529</v>
       </c>
       <c r="GV2" s="10">
         <f t="shared" si="3"/>
+        <v>45530</v>
+      </c>
+      <c r="GW2" s="10">
+        <f t="shared" si="3"/>
+        <v>45531</v>
+      </c>
+      <c r="GX2" s="10">
+        <f t="shared" si="3"/>
+        <v>45532</v>
+      </c>
+      <c r="GY2" s="10">
+        <f t="shared" si="3"/>
+        <v>45533</v>
+      </c>
+      <c r="GZ2" s="10">
+        <f t="shared" si="3"/>
+        <v>45534</v>
+      </c>
+      <c r="HA2" s="10">
+        <f t="shared" si="3"/>
+        <v>45535</v>
+      </c>
+      <c r="HB2" s="10">
+        <f t="shared" si="3"/>
+        <v>45536</v>
+      </c>
+      <c r="HC2" s="10">
+        <f t="shared" si="3"/>
+        <v>45537</v>
+      </c>
+      <c r="HD2" s="10">
+        <f t="shared" si="3"/>
+        <v>45538</v>
+      </c>
+      <c r="HE2" s="10">
+        <f t="shared" si="3"/>
+        <v>45539</v>
+      </c>
+      <c r="HF2" s="10">
+        <f t="shared" si="3"/>
+        <v>45540</v>
+      </c>
+      <c r="HG2" s="10">
+        <f t="shared" si="3"/>
+        <v>45541</v>
+      </c>
+      <c r="HH2" s="10">
+        <f t="shared" si="3"/>
+        <v>45542</v>
+      </c>
+      <c r="HI2" s="10">
+        <f t="shared" si="3"/>
+        <v>45543</v>
+      </c>
+      <c r="HJ2" s="10">
+        <f t="shared" si="3"/>
+        <v>45544</v>
+      </c>
+      <c r="HK2" s="10">
+        <f t="shared" si="3"/>
+        <v>45545</v>
+      </c>
+      <c r="HL2" s="10">
+        <f t="shared" si="3"/>
+        <v>45546</v>
+      </c>
+      <c r="HM2" s="10">
+        <f t="shared" si="3"/>
+        <v>45547</v>
+      </c>
+      <c r="HN2" s="10">
+        <f t="shared" si="3"/>
+        <v>45548</v>
+      </c>
+      <c r="HO2" s="10">
+        <f t="shared" si="3"/>
+        <v>45549</v>
+      </c>
+      <c r="HP2" s="10">
+        <f t="shared" si="3"/>
+        <v>45550</v>
+      </c>
+      <c r="HQ2" s="10">
+        <f t="shared" si="3"/>
+        <v>45551</v>
+      </c>
+      <c r="HR2" s="10">
+        <f t="shared" si="3"/>
+        <v>45552</v>
+      </c>
+      <c r="HS2" s="10">
+        <f t="shared" si="3"/>
+        <v>45553</v>
+      </c>
+      <c r="HT2" s="10">
+        <f t="shared" si="3"/>
+        <v>45554</v>
+      </c>
+      <c r="HU2" s="10">
+        <f t="shared" si="3"/>
+        <v>45555</v>
+      </c>
+      <c r="HV2" s="10">
+        <f t="shared" si="3"/>
+        <v>45556</v>
+      </c>
+      <c r="HW2" s="10">
+        <f t="shared" si="3"/>
+        <v>45557</v>
+      </c>
+      <c r="HX2" s="10">
+        <f t="shared" si="3"/>
+        <v>45558</v>
+      </c>
+      <c r="HY2" s="10">
+        <f t="shared" si="3"/>
+        <v>45559</v>
+      </c>
+      <c r="HZ2" s="10">
+        <f t="shared" si="3"/>
+        <v>45560</v>
+      </c>
+      <c r="IA2" s="10">
+        <f t="shared" si="3"/>
+        <v>45561</v>
+      </c>
+      <c r="IB2" s="10">
+        <f t="shared" si="3"/>
+        <v>45562</v>
+      </c>
+      <c r="IC2" s="10">
+        <f t="shared" si="3"/>
+        <v>45563</v>
+      </c>
+      <c r="ID2" s="10">
+        <f t="shared" si="3"/>
+        <v>45564</v>
+      </c>
+      <c r="IE2" s="10">
+        <f t="shared" si="3"/>
+        <v>45565</v>
+      </c>
+      <c r="IF2" s="10">
+        <f t="shared" si="3"/>
+        <v>45566</v>
+      </c>
+      <c r="IG2" s="10">
+        <f t="shared" si="3"/>
+        <v>45567</v>
+      </c>
+      <c r="IH2" s="10">
+        <f t="shared" si="3"/>
+        <v>45568</v>
+      </c>
+      <c r="II2" s="10">
+        <f t="shared" si="3"/>
+        <v>45569</v>
+      </c>
+      <c r="IJ2" s="10">
+        <f t="shared" si="3"/>
+        <v>45570</v>
+      </c>
+      <c r="IK2" s="10">
+        <f t="shared" si="3"/>
+        <v>45571</v>
+      </c>
+    </row>
+    <row r="3" spans="1:245" ht="61.2" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="33" t="s">
+        <v>8</v>
+      </c>
+      <c r="B3" s="33" t="s">
+        <v>9</v>
+      </c>
+      <c r="C3" s="33" t="s">
+        <v>0</v>
+      </c>
+      <c r="D3" s="33" t="s">
+        <v>1</v>
+      </c>
+      <c r="E3" s="34" t="s">
+        <v>2</v>
+      </c>
+      <c r="F3" s="35" t="s">
+        <v>5</v>
+      </c>
+      <c r="G3" s="11"/>
+      <c r="H3" s="30">
+        <f>H2</f>
+        <v>45334</v>
+      </c>
+      <c r="I3" s="31"/>
+      <c r="J3" s="31"/>
+      <c r="K3" s="31"/>
+      <c r="L3" s="31"/>
+      <c r="M3" s="31"/>
+      <c r="N3" s="32"/>
+      <c r="O3" s="30">
+        <f>O2</f>
+        <v>45341</v>
+      </c>
+      <c r="P3" s="31"/>
+      <c r="Q3" s="31"/>
+      <c r="R3" s="31"/>
+      <c r="S3" s="31"/>
+      <c r="T3" s="31"/>
+      <c r="U3" s="32"/>
+      <c r="V3" s="30">
+        <f>V2</f>
+        <v>45348</v>
+      </c>
+      <c r="W3" s="31"/>
+      <c r="X3" s="31"/>
+      <c r="Y3" s="31"/>
+      <c r="Z3" s="31"/>
+      <c r="AA3" s="31"/>
+      <c r="AB3" s="32"/>
+      <c r="AC3" s="30">
+        <f>AC2</f>
+        <v>45355</v>
+      </c>
+      <c r="AD3" s="31"/>
+      <c r="AE3" s="31"/>
+      <c r="AF3" s="31"/>
+      <c r="AG3" s="31"/>
+      <c r="AH3" s="31"/>
+      <c r="AI3" s="32"/>
+      <c r="AJ3" s="30">
+        <f>AJ2</f>
+        <v>45362</v>
+      </c>
+      <c r="AK3" s="31"/>
+      <c r="AL3" s="31"/>
+      <c r="AM3" s="31"/>
+      <c r="AN3" s="31"/>
+      <c r="AO3" s="31"/>
+      <c r="AP3" s="32"/>
+      <c r="AQ3" s="30">
+        <f>AQ2</f>
+        <v>45369</v>
+      </c>
+      <c r="AR3" s="31"/>
+      <c r="AS3" s="31"/>
+      <c r="AT3" s="31"/>
+      <c r="AU3" s="31"/>
+      <c r="AV3" s="31"/>
+      <c r="AW3" s="32"/>
+      <c r="AX3" s="30">
+        <f>AX2</f>
+        <v>45376</v>
+      </c>
+      <c r="AY3" s="31"/>
+      <c r="AZ3" s="31"/>
+      <c r="BA3" s="31"/>
+      <c r="BB3" s="31"/>
+      <c r="BC3" s="31"/>
+      <c r="BD3" s="32"/>
+      <c r="BE3" s="30">
+        <f>BE2</f>
+        <v>45383</v>
+      </c>
+      <c r="BF3" s="31"/>
+      <c r="BG3" s="31"/>
+      <c r="BH3" s="31"/>
+      <c r="BI3" s="31"/>
+      <c r="BJ3" s="31"/>
+      <c r="BK3" s="32"/>
+      <c r="BL3" s="30">
+        <f>BL2</f>
+        <v>45390</v>
+      </c>
+      <c r="BM3" s="31"/>
+      <c r="BN3" s="31"/>
+      <c r="BO3" s="31"/>
+      <c r="BP3" s="31"/>
+      <c r="BQ3" s="31"/>
+      <c r="BR3" s="32"/>
+      <c r="BS3" s="30">
+        <f>BS2</f>
+        <v>45397</v>
+      </c>
+      <c r="BT3" s="31"/>
+      <c r="BU3" s="31"/>
+      <c r="BV3" s="31"/>
+      <c r="BW3" s="31"/>
+      <c r="BX3" s="31"/>
+      <c r="BY3" s="32"/>
+      <c r="BZ3" s="30">
+        <f>BZ2</f>
+        <v>45404</v>
+      </c>
+      <c r="CA3" s="31"/>
+      <c r="CB3" s="31"/>
+      <c r="CC3" s="31"/>
+      <c r="CD3" s="31"/>
+      <c r="CE3" s="31"/>
+      <c r="CF3" s="32"/>
+      <c r="CG3" s="30">
+        <f>CG2</f>
+        <v>45411</v>
+      </c>
+      <c r="CH3" s="31"/>
+      <c r="CI3" s="31"/>
+      <c r="CJ3" s="31"/>
+      <c r="CK3" s="31"/>
+      <c r="CL3" s="31"/>
+      <c r="CM3" s="32"/>
+      <c r="CN3" s="30">
+        <f>CN2</f>
+        <v>45418</v>
+      </c>
+      <c r="CO3" s="31"/>
+      <c r="CP3" s="31"/>
+      <c r="CQ3" s="31"/>
+      <c r="CR3" s="31"/>
+      <c r="CS3" s="31"/>
+      <c r="CT3" s="32"/>
+      <c r="CU3" s="30">
+        <f>CU2</f>
+        <v>45425</v>
+      </c>
+      <c r="CV3" s="31"/>
+      <c r="CW3" s="31"/>
+      <c r="CX3" s="31"/>
+      <c r="CY3" s="31"/>
+      <c r="CZ3" s="31"/>
+      <c r="DA3" s="32"/>
+      <c r="DB3" s="30">
+        <f>DB2</f>
+        <v>45432</v>
+      </c>
+      <c r="DC3" s="31"/>
+      <c r="DD3" s="31"/>
+      <c r="DE3" s="31"/>
+      <c r="DF3" s="31"/>
+      <c r="DG3" s="31"/>
+      <c r="DH3" s="32"/>
+      <c r="DI3" s="30">
+        <f>DI2</f>
+        <v>45439</v>
+      </c>
+      <c r="DJ3" s="31"/>
+      <c r="DK3" s="31"/>
+      <c r="DL3" s="31"/>
+      <c r="DM3" s="31"/>
+      <c r="DN3" s="31"/>
+      <c r="DO3" s="32"/>
+      <c r="DP3" s="30">
+        <f>DP2</f>
+        <v>45446</v>
+      </c>
+      <c r="DQ3" s="31"/>
+      <c r="DR3" s="31"/>
+      <c r="DS3" s="31"/>
+      <c r="DT3" s="31"/>
+      <c r="DU3" s="31"/>
+      <c r="DV3" s="32"/>
+      <c r="DW3" s="30">
+        <f>DW2</f>
+        <v>45453</v>
+      </c>
+      <c r="DX3" s="31"/>
+      <c r="DY3" s="31"/>
+      <c r="DZ3" s="31"/>
+      <c r="EA3" s="31"/>
+      <c r="EB3" s="31"/>
+      <c r="EC3" s="32"/>
+      <c r="ED3" s="30">
+        <f>ED2</f>
+        <v>45460</v>
+      </c>
+      <c r="EE3" s="31"/>
+      <c r="EF3" s="31"/>
+      <c r="EG3" s="31"/>
+      <c r="EH3" s="31"/>
+      <c r="EI3" s="31"/>
+      <c r="EJ3" s="32"/>
+      <c r="EK3" s="30">
+        <f>EK2</f>
+        <v>45467</v>
+      </c>
+      <c r="EL3" s="31"/>
+      <c r="EM3" s="31"/>
+      <c r="EN3" s="31"/>
+      <c r="EO3" s="31"/>
+      <c r="EP3" s="31"/>
+      <c r="EQ3" s="32"/>
+      <c r="ER3" s="30">
+        <f>ER2</f>
+        <v>45474</v>
+      </c>
+      <c r="ES3" s="31"/>
+      <c r="ET3" s="31"/>
+      <c r="EU3" s="31"/>
+      <c r="EV3" s="31"/>
+      <c r="EW3" s="31"/>
+      <c r="EX3" s="32"/>
+      <c r="EY3" s="30">
+        <f>EY2</f>
+        <v>45481</v>
+      </c>
+      <c r="EZ3" s="31"/>
+      <c r="FA3" s="31"/>
+      <c r="FB3" s="31"/>
+      <c r="FC3" s="31"/>
+      <c r="FD3" s="31"/>
+      <c r="FE3" s="32"/>
+      <c r="FF3" s="30">
+        <f>FF2</f>
+        <v>45488</v>
+      </c>
+      <c r="FG3" s="31"/>
+      <c r="FH3" s="31"/>
+      <c r="FI3" s="31"/>
+      <c r="FJ3" s="31"/>
+      <c r="FK3" s="31"/>
+      <c r="FL3" s="32"/>
+      <c r="FM3" s="30">
+        <f>FM2</f>
+        <v>45495</v>
+      </c>
+      <c r="FN3" s="31"/>
+      <c r="FO3" s="31"/>
+      <c r="FP3" s="31"/>
+      <c r="FQ3" s="31"/>
+      <c r="FR3" s="31"/>
+      <c r="FS3" s="32"/>
+      <c r="FT3" s="30">
+        <f>FT2</f>
+        <v>45502</v>
+      </c>
+      <c r="FU3" s="31"/>
+      <c r="FV3" s="31"/>
+      <c r="FW3" s="31"/>
+      <c r="FX3" s="31"/>
+      <c r="FY3" s="31"/>
+      <c r="FZ3" s="32"/>
+      <c r="GA3" s="30">
+        <f>GA2</f>
+        <v>45509</v>
+      </c>
+      <c r="GB3" s="31"/>
+      <c r="GC3" s="31"/>
+      <c r="GD3" s="31"/>
+      <c r="GE3" s="31"/>
+      <c r="GF3" s="31"/>
+      <c r="GG3" s="32"/>
+      <c r="GH3" s="30">
+        <f>GH2</f>
         <v>45516</v>
       </c>
-      <c r="GW2" s="10">
-        <f t="shared" si="3"/>
-        <v>45517</v>
-      </c>
-      <c r="GX2" s="10">
-        <f t="shared" si="3"/>
-        <v>45518</v>
-      </c>
-      <c r="GY2" s="10">
-        <f t="shared" si="3"/>
-        <v>45519</v>
-      </c>
-      <c r="GZ2" s="10">
-        <f t="shared" si="3"/>
-        <v>45520</v>
-      </c>
-      <c r="HA2" s="10">
-        <f t="shared" si="3"/>
-        <v>45521</v>
-      </c>
-      <c r="HB2" s="10">
-        <f t="shared" si="3"/>
-        <v>45522</v>
-      </c>
-      <c r="HC2" s="10">
-        <f t="shared" si="3"/>
+      <c r="GI3" s="31"/>
+      <c r="GJ3" s="31"/>
+      <c r="GK3" s="31"/>
+      <c r="GL3" s="31"/>
+      <c r="GM3" s="31"/>
+      <c r="GN3" s="32"/>
+      <c r="GO3" s="30">
+        <f>GO2</f>
         <v>45523</v>
       </c>
-      <c r="HD2" s="10">
-        <f t="shared" si="3"/>
-        <v>45524</v>
-      </c>
-      <c r="HE2" s="10">
-        <f t="shared" si="3"/>
-        <v>45525</v>
-      </c>
-      <c r="HF2" s="10">
-        <f t="shared" si="3"/>
-        <v>45526</v>
-      </c>
-      <c r="HG2" s="10">
-        <f t="shared" si="3"/>
-        <v>45527</v>
-      </c>
-      <c r="HH2" s="10">
-        <f t="shared" si="3"/>
-        <v>45528</v>
-      </c>
-      <c r="HI2" s="10">
-        <f t="shared" si="3"/>
-        <v>45529</v>
-      </c>
-      <c r="HJ2" s="10">
-        <f t="shared" si="3"/>
+      <c r="GP3" s="31"/>
+      <c r="GQ3" s="31"/>
+      <c r="GR3" s="31"/>
+      <c r="GS3" s="31"/>
+      <c r="GT3" s="31"/>
+      <c r="GU3" s="32"/>
+      <c r="GV3" s="30">
+        <f>GV2</f>
         <v>45530</v>
       </c>
-      <c r="HK2" s="10">
-        <f t="shared" si="3"/>
-        <v>45531</v>
-      </c>
-      <c r="HL2" s="10">
-        <f t="shared" si="3"/>
-        <v>45532</v>
-      </c>
-      <c r="HM2" s="10">
-        <f t="shared" si="3"/>
-        <v>45533</v>
-      </c>
-      <c r="HN2" s="10">
-        <f t="shared" si="3"/>
-        <v>45534</v>
-      </c>
-      <c r="HO2" s="10">
-        <f t="shared" si="3"/>
-        <v>45535</v>
-      </c>
-      <c r="HP2" s="10">
-        <f t="shared" si="3"/>
-        <v>45536</v>
-      </c>
-      <c r="HQ2" s="10">
-        <f t="shared" si="3"/>
+      <c r="GW3" s="31"/>
+      <c r="GX3" s="31"/>
+      <c r="GY3" s="31"/>
+      <c r="GZ3" s="31"/>
+      <c r="HA3" s="31"/>
+      <c r="HB3" s="32"/>
+      <c r="HC3" s="30">
+        <f>HC2</f>
         <v>45537</v>
       </c>
-      <c r="HR2" s="10">
-        <f t="shared" si="3"/>
-        <v>45538</v>
-      </c>
-      <c r="HS2" s="10">
-        <f t="shared" si="3"/>
-        <v>45539</v>
-      </c>
-      <c r="HT2" s="10">
-        <f t="shared" si="3"/>
-        <v>45540</v>
-      </c>
-      <c r="HU2" s="10">
-        <f t="shared" si="3"/>
-        <v>45541</v>
-      </c>
-      <c r="HV2" s="10">
-        <f t="shared" si="3"/>
-        <v>45542</v>
-      </c>
-      <c r="HW2" s="10">
-        <f t="shared" si="3"/>
-        <v>45543</v>
-      </c>
-      <c r="HX2" s="10">
-        <f t="shared" si="3"/>
+      <c r="HD3" s="31"/>
+      <c r="HE3" s="31"/>
+      <c r="HF3" s="31"/>
+      <c r="HG3" s="31"/>
+      <c r="HH3" s="31"/>
+      <c r="HI3" s="32"/>
+      <c r="HJ3" s="30">
+        <f>HJ2</f>
         <v>45544</v>
       </c>
-      <c r="HY2" s="10">
-        <f t="shared" si="3"/>
-        <v>45545</v>
-      </c>
-      <c r="HZ2" s="10">
-        <f t="shared" si="3"/>
-        <v>45546</v>
-      </c>
-      <c r="IA2" s="10">
-        <f t="shared" si="3"/>
-        <v>45547</v>
-      </c>
-      <c r="IB2" s="10">
-        <f t="shared" si="3"/>
-        <v>45548</v>
-      </c>
-      <c r="IC2" s="10">
-        <f t="shared" si="3"/>
-        <v>45549</v>
-      </c>
-      <c r="ID2" s="10">
-        <f t="shared" si="3"/>
-        <v>45550</v>
-      </c>
-      <c r="IE2" s="10">
-        <f t="shared" si="3"/>
+      <c r="HK3" s="31"/>
+      <c r="HL3" s="31"/>
+      <c r="HM3" s="31"/>
+      <c r="HN3" s="31"/>
+      <c r="HO3" s="31"/>
+      <c r="HP3" s="32"/>
+      <c r="HQ3" s="30">
+        <f>HQ2</f>
         <v>45551</v>
       </c>
-      <c r="IF2" s="10">
-        <f t="shared" si="3"/>
-        <v>45552</v>
-      </c>
-      <c r="IG2" s="10">
-        <f t="shared" si="3"/>
-        <v>45553</v>
-      </c>
-      <c r="IH2" s="10">
-        <f t="shared" si="3"/>
-        <v>45554</v>
-      </c>
-      <c r="II2" s="10">
-        <f t="shared" si="3"/>
-        <v>45555</v>
-      </c>
-      <c r="IJ2" s="10">
-        <f t="shared" si="3"/>
-        <v>45556</v>
-      </c>
-      <c r="IK2" s="10">
-        <f t="shared" si="3"/>
-        <v>45557</v>
-      </c>
+      <c r="HR3" s="31"/>
+      <c r="HS3" s="31"/>
+      <c r="HT3" s="31"/>
+      <c r="HU3" s="31"/>
+      <c r="HV3" s="31"/>
+      <c r="HW3" s="32"/>
+      <c r="HX3" s="30">
+        <f>HX2</f>
+        <v>45558</v>
+      </c>
+      <c r="HY3" s="31"/>
+      <c r="HZ3" s="31"/>
+      <c r="IA3" s="31"/>
+      <c r="IB3" s="31"/>
+      <c r="IC3" s="31"/>
+      <c r="ID3" s="32"/>
+      <c r="IE3" s="30">
+        <f>IE2</f>
+        <v>45565</v>
+      </c>
+      <c r="IF3" s="31"/>
+      <c r="IG3" s="31"/>
+      <c r="IH3" s="31"/>
+      <c r="II3" s="31"/>
+      <c r="IJ3" s="31"/>
+      <c r="IK3" s="32"/>
     </row>
-    <row r="3" spans="1:245" ht="43.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="12" t="s">
-        <v>8</v>
-      </c>
-      <c r="B3" s="14" t="s">
-        <v>9</v>
-      </c>
-      <c r="C3" s="11" t="s">
-        <v>0</v>
-      </c>
-      <c r="D3" s="11" t="s">
-        <v>1</v>
-      </c>
-      <c r="E3" s="23" t="s">
-        <v>2</v>
-      </c>
-      <c r="F3" s="24" t="s">
-        <v>5</v>
-      </c>
-      <c r="G3" s="13"/>
-      <c r="H3" s="32">
-        <f>H2</f>
-        <v>45320</v>
-      </c>
-      <c r="I3" s="33"/>
-      <c r="J3" s="33"/>
-      <c r="K3" s="33"/>
-      <c r="L3" s="33"/>
-      <c r="M3" s="33"/>
-      <c r="N3" s="34"/>
-      <c r="O3" s="32">
-        <f>O2</f>
-        <v>45327</v>
-      </c>
-      <c r="P3" s="33"/>
-      <c r="Q3" s="33"/>
-      <c r="R3" s="33"/>
-      <c r="S3" s="33"/>
-      <c r="T3" s="33"/>
-      <c r="U3" s="34"/>
-      <c r="V3" s="32">
-        <f>V2</f>
-        <v>45334</v>
-      </c>
-      <c r="W3" s="33"/>
-      <c r="X3" s="33"/>
-      <c r="Y3" s="33"/>
-      <c r="Z3" s="33"/>
-      <c r="AA3" s="33"/>
-      <c r="AB3" s="34"/>
-      <c r="AC3" s="32">
-        <f>AC2</f>
-        <v>45341</v>
-      </c>
-      <c r="AD3" s="33"/>
-      <c r="AE3" s="33"/>
-      <c r="AF3" s="33"/>
-      <c r="AG3" s="33"/>
-      <c r="AH3" s="33"/>
-      <c r="AI3" s="34"/>
-      <c r="AJ3" s="32">
-        <f>AJ2</f>
-        <v>45348</v>
-      </c>
-      <c r="AK3" s="33"/>
-      <c r="AL3" s="33"/>
-      <c r="AM3" s="33"/>
-      <c r="AN3" s="33"/>
-      <c r="AO3" s="33"/>
-      <c r="AP3" s="34"/>
-      <c r="AQ3" s="32">
-        <f>AQ2</f>
-        <v>45355</v>
-      </c>
-      <c r="AR3" s="33"/>
-      <c r="AS3" s="33"/>
-      <c r="AT3" s="33"/>
-      <c r="AU3" s="33"/>
-      <c r="AV3" s="33"/>
-      <c r="AW3" s="34"/>
-      <c r="AX3" s="32">
-        <f>AX2</f>
-        <v>45362</v>
-      </c>
-      <c r="AY3" s="33"/>
-      <c r="AZ3" s="33"/>
-      <c r="BA3" s="33"/>
-      <c r="BB3" s="33"/>
-      <c r="BC3" s="33"/>
-      <c r="BD3" s="34"/>
-      <c r="BE3" s="32">
-        <f>BE2</f>
-        <v>45369</v>
-      </c>
-      <c r="BF3" s="33"/>
-      <c r="BG3" s="33"/>
-      <c r="BH3" s="33"/>
-      <c r="BI3" s="33"/>
-      <c r="BJ3" s="33"/>
-      <c r="BK3" s="34"/>
-      <c r="BL3" s="32">
-        <f>BL2</f>
-        <v>45376</v>
-      </c>
-      <c r="BM3" s="33"/>
-      <c r="BN3" s="33"/>
-      <c r="BO3" s="33"/>
-      <c r="BP3" s="33"/>
-      <c r="BQ3" s="33"/>
-      <c r="BR3" s="34"/>
-      <c r="BS3" s="32">
-        <f>BS2</f>
-        <v>45383</v>
-      </c>
-      <c r="BT3" s="33"/>
-      <c r="BU3" s="33"/>
-      <c r="BV3" s="33"/>
-      <c r="BW3" s="33"/>
-      <c r="BX3" s="33"/>
-      <c r="BY3" s="34"/>
-      <c r="BZ3" s="32">
-        <f>BZ2</f>
-        <v>45390</v>
-      </c>
-      <c r="CA3" s="33"/>
-      <c r="CB3" s="33"/>
-      <c r="CC3" s="33"/>
-      <c r="CD3" s="33"/>
-      <c r="CE3" s="33"/>
-      <c r="CF3" s="34"/>
-      <c r="CG3" s="32">
-        <f>CG2</f>
-        <v>45397</v>
-      </c>
-      <c r="CH3" s="33"/>
-      <c r="CI3" s="33"/>
-      <c r="CJ3" s="33"/>
-      <c r="CK3" s="33"/>
-      <c r="CL3" s="33"/>
-      <c r="CM3" s="34"/>
-      <c r="CN3" s="32">
-        <f>CN2</f>
-        <v>45404</v>
-      </c>
-      <c r="CO3" s="33"/>
-      <c r="CP3" s="33"/>
-      <c r="CQ3" s="33"/>
-      <c r="CR3" s="33"/>
-      <c r="CS3" s="33"/>
-      <c r="CT3" s="34"/>
-      <c r="CU3" s="32">
-        <f>CU2</f>
-        <v>45411</v>
-      </c>
-      <c r="CV3" s="33"/>
-      <c r="CW3" s="33"/>
-      <c r="CX3" s="33"/>
-      <c r="CY3" s="33"/>
-      <c r="CZ3" s="33"/>
-      <c r="DA3" s="34"/>
-      <c r="DB3" s="32">
-        <f>DB2</f>
-        <v>45418</v>
-      </c>
-      <c r="DC3" s="33"/>
-      <c r="DD3" s="33"/>
-      <c r="DE3" s="33"/>
-      <c r="DF3" s="33"/>
-      <c r="DG3" s="33"/>
-      <c r="DH3" s="34"/>
-      <c r="DI3" s="32">
-        <f>DI2</f>
-        <v>45425</v>
-      </c>
-      <c r="DJ3" s="33"/>
-      <c r="DK3" s="33"/>
-      <c r="DL3" s="33"/>
-      <c r="DM3" s="33"/>
-      <c r="DN3" s="33"/>
-      <c r="DO3" s="34"/>
-      <c r="DP3" s="32">
-        <f>DP2</f>
-        <v>45432</v>
-      </c>
-      <c r="DQ3" s="33"/>
-      <c r="DR3" s="33"/>
-      <c r="DS3" s="33"/>
-      <c r="DT3" s="33"/>
-      <c r="DU3" s="33"/>
-      <c r="DV3" s="34"/>
-      <c r="DW3" s="32">
-        <f>DW2</f>
-        <v>45439</v>
-      </c>
-      <c r="DX3" s="33"/>
-      <c r="DY3" s="33"/>
-      <c r="DZ3" s="33"/>
-      <c r="EA3" s="33"/>
-      <c r="EB3" s="33"/>
-      <c r="EC3" s="34"/>
-      <c r="ED3" s="32">
-        <f>ED2</f>
-        <v>45446</v>
-      </c>
-      <c r="EE3" s="33"/>
-      <c r="EF3" s="33"/>
-      <c r="EG3" s="33"/>
-      <c r="EH3" s="33"/>
-      <c r="EI3" s="33"/>
-      <c r="EJ3" s="34"/>
-      <c r="EK3" s="32">
-        <f>EK2</f>
-        <v>45453</v>
-      </c>
-      <c r="EL3" s="33"/>
-      <c r="EM3" s="33"/>
-      <c r="EN3" s="33"/>
-      <c r="EO3" s="33"/>
-      <c r="EP3" s="33"/>
-      <c r="EQ3" s="34"/>
-      <c r="ER3" s="32">
-        <f>ER2</f>
-        <v>45460</v>
-      </c>
-      <c r="ES3" s="33"/>
-      <c r="ET3" s="33"/>
-      <c r="EU3" s="33"/>
-      <c r="EV3" s="33"/>
-      <c r="EW3" s="33"/>
-      <c r="EX3" s="34"/>
-      <c r="EY3" s="32">
-        <f>EY2</f>
-        <v>45467</v>
-      </c>
-      <c r="EZ3" s="33"/>
-      <c r="FA3" s="33"/>
-      <c r="FB3" s="33"/>
-      <c r="FC3" s="33"/>
-      <c r="FD3" s="33"/>
-      <c r="FE3" s="34"/>
-      <c r="FF3" s="32">
-        <f>FF2</f>
-        <v>45474</v>
-      </c>
-      <c r="FG3" s="33"/>
-      <c r="FH3" s="33"/>
-      <c r="FI3" s="33"/>
-      <c r="FJ3" s="33"/>
-      <c r="FK3" s="33"/>
-      <c r="FL3" s="34"/>
-      <c r="FM3" s="32">
-        <f>FM2</f>
-        <v>45481</v>
-      </c>
-      <c r="FN3" s="33"/>
-      <c r="FO3" s="33"/>
-      <c r="FP3" s="33"/>
-      <c r="FQ3" s="33"/>
-      <c r="FR3" s="33"/>
-      <c r="FS3" s="34"/>
-      <c r="FT3" s="32">
-        <f>FT2</f>
-        <v>45488</v>
-      </c>
-      <c r="FU3" s="33"/>
-      <c r="FV3" s="33"/>
-      <c r="FW3" s="33"/>
-      <c r="FX3" s="33"/>
-      <c r="FY3" s="33"/>
-      <c r="FZ3" s="34"/>
-      <c r="GA3" s="32">
-        <f>GA2</f>
-        <v>45495</v>
-      </c>
-      <c r="GB3" s="33"/>
-      <c r="GC3" s="33"/>
-      <c r="GD3" s="33"/>
-      <c r="GE3" s="33"/>
-      <c r="GF3" s="33"/>
-      <c r="GG3" s="34"/>
-      <c r="GH3" s="32">
-        <f>GH2</f>
-        <v>45502</v>
-      </c>
-      <c r="GI3" s="33"/>
-      <c r="GJ3" s="33"/>
-      <c r="GK3" s="33"/>
-      <c r="GL3" s="33"/>
-      <c r="GM3" s="33"/>
-      <c r="GN3" s="34"/>
-      <c r="GO3" s="32">
-        <f>GO2</f>
-        <v>45509</v>
-      </c>
-      <c r="GP3" s="33"/>
-      <c r="GQ3" s="33"/>
-      <c r="GR3" s="33"/>
-      <c r="GS3" s="33"/>
-      <c r="GT3" s="33"/>
-      <c r="GU3" s="34"/>
-      <c r="GV3" s="32">
-        <f>GV2</f>
-        <v>45516</v>
-      </c>
-      <c r="GW3" s="33"/>
-      <c r="GX3" s="33"/>
-      <c r="GY3" s="33"/>
-      <c r="GZ3" s="33"/>
-      <c r="HA3" s="33"/>
-      <c r="HB3" s="34"/>
-      <c r="HC3" s="32">
-        <f>HC2</f>
-        <v>45523</v>
-      </c>
-      <c r="HD3" s="33"/>
-      <c r="HE3" s="33"/>
-      <c r="HF3" s="33"/>
-      <c r="HG3" s="33"/>
-      <c r="HH3" s="33"/>
-      <c r="HI3" s="34"/>
-      <c r="HJ3" s="32">
-        <f>HJ2</f>
-        <v>45530</v>
-      </c>
-      <c r="HK3" s="33"/>
-      <c r="HL3" s="33"/>
-      <c r="HM3" s="33"/>
-      <c r="HN3" s="33"/>
-      <c r="HO3" s="33"/>
-      <c r="HP3" s="34"/>
-      <c r="HQ3" s="32">
-        <f>HQ2</f>
-        <v>45537</v>
-      </c>
-      <c r="HR3" s="33"/>
-      <c r="HS3" s="33"/>
-      <c r="HT3" s="33"/>
-      <c r="HU3" s="33"/>
-      <c r="HV3" s="33"/>
-      <c r="HW3" s="34"/>
-      <c r="HX3" s="32">
-        <f>HX2</f>
-        <v>45544</v>
-      </c>
-      <c r="HY3" s="33"/>
-      <c r="HZ3" s="33"/>
-      <c r="IA3" s="33"/>
-      <c r="IB3" s="33"/>
-      <c r="IC3" s="33"/>
-      <c r="ID3" s="34"/>
-      <c r="IE3" s="32">
-        <f>IE2</f>
-        <v>45551</v>
-      </c>
-      <c r="IF3" s="33"/>
-      <c r="IG3" s="33"/>
-      <c r="IH3" s="33"/>
-      <c r="II3" s="33"/>
-      <c r="IJ3" s="33"/>
-      <c r="IK3" s="34"/>
-    </row>
-    <row r="4" spans="1:245" s="15" customFormat="1" ht="10.199999999999999" x14ac:dyDescent="0.2">
-      <c r="A4" s="26" t="s">
+    <row r="4" spans="1:245" s="12" customFormat="1" ht="10.199999999999999" x14ac:dyDescent="0.2">
+      <c r="A4" s="21" t="s">
         <v>11</v>
       </c>
       <c r="B4" s="3"/>
-      <c r="C4" s="27">
-        <f>MIN(C5:C36)</f>
+      <c r="C4" s="22">
+        <f>MIN(C5:C40)</f>
         <v>45342</v>
       </c>
-      <c r="D4" s="28">
+      <c r="D4" s="23">
         <f>C4+E4-1</f>
         <v>45438</v>
       </c>
       <c r="E4" s="4">
-        <f>MAX(D5:D36)-C4+1</f>
+        <f>MAX(D5:D40)-C4+1</f>
         <v>97</v>
       </c>
       <c r="F4" s="5">
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:245" s="16" customFormat="1" ht="10.199999999999999" outlineLevel="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="6" t="s">
+    <row r="5" spans="1:245" s="13" customFormat="1" ht="10.199999999999999" outlineLevel="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="28" t="s">
+        <v>38</v>
+      </c>
+      <c r="B5" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="B5" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="C5" s="29">
+      <c r="C5" s="24">
         <v>45342</v>
       </c>
-      <c r="D5" s="30">
+      <c r="D5" s="25">
         <f>C5+E5-1</f>
         <v>45342</v>
       </c>
@@ -3093,18 +3116,18 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:245" s="16" customFormat="1" ht="10.199999999999999" outlineLevel="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="6" t="s">
+    <row r="6" spans="1:245" s="13" customFormat="1" ht="10.199999999999999" outlineLevel="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="29" t="s">
+        <v>42</v>
+      </c>
+      <c r="B6" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="B6" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="C6" s="29">
+      <c r="C6" s="24">
         <v>45343</v>
       </c>
-      <c r="D6" s="30">
-        <f t="shared" ref="D6:D22" si="4">C6+E6-1</f>
+      <c r="D6" s="25">
+        <f t="shared" ref="D6:D24" si="4">C6+E6-1</f>
         <v>45343</v>
       </c>
       <c r="E6" s="7">
@@ -3114,18 +3137,18 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:245" s="16" customFormat="1" ht="10.199999999999999" outlineLevel="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:245" s="13" customFormat="1" ht="10.199999999999999" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A7" s="6" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="B7" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="C7" s="29">
+      <c r="C7" s="24">
         <f>D6+1</f>
         <v>45344</v>
       </c>
-      <c r="D7" s="30">
+      <c r="D7" s="25">
         <f t="shared" si="4"/>
         <v>45344</v>
       </c>
@@ -3136,17 +3159,17 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:245" s="16" customFormat="1" ht="10.199999999999999" outlineLevel="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:245" s="13" customFormat="1" ht="10.199999999999999" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A8" s="6" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="B8" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="C8" s="29">
+        <v>12</v>
+      </c>
+      <c r="C8" s="24">
         <v>45363</v>
       </c>
-      <c r="D8" s="30">
+      <c r="D8" s="25">
         <f>C8+E8-1</f>
         <v>45363</v>
       </c>
@@ -3157,17 +3180,17 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:245" s="16" customFormat="1" ht="10.199999999999999" outlineLevel="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="6" t="s">
-        <v>16</v>
+    <row r="9" spans="1:245" s="13" customFormat="1" ht="10.199999999999999" outlineLevel="1" x14ac:dyDescent="0.2">
+      <c r="A9" s="29" t="s">
+        <v>14</v>
       </c>
       <c r="B9" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="C9" s="29">
+        <v>13</v>
+      </c>
+      <c r="C9" s="24">
         <v>45348</v>
       </c>
-      <c r="D9" s="30">
+      <c r="D9" s="25">
         <f t="shared" si="4"/>
         <v>45348</v>
       </c>
@@ -3178,18 +3201,18 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:245" s="16" customFormat="1" ht="10.199999999999999" outlineLevel="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:245" s="13" customFormat="1" ht="10.199999999999999" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A10" s="6" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="B10" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="C10" s="29">
+      <c r="C10" s="24">
         <f>C9</f>
         <v>45348</v>
       </c>
-      <c r="D10" s="30">
+      <c r="D10" s="25">
         <f t="shared" si="4"/>
         <v>45351</v>
       </c>
@@ -3200,18 +3223,18 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:245" s="16" customFormat="1" ht="10.199999999999999" outlineLevel="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:245" s="13" customFormat="1" ht="10.199999999999999" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A11" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="B11" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="B11" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="C11" s="29">
+      <c r="C11" s="24">
         <f>D10</f>
         <v>45351</v>
       </c>
-      <c r="D11" s="30">
+      <c r="D11" s="25">
         <f t="shared" si="4"/>
         <v>45354</v>
       </c>
@@ -3222,17 +3245,17 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:245" s="16" customFormat="1" ht="10.199999999999999" outlineLevel="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:245" s="13" customFormat="1" ht="10.199999999999999" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A12" s="6" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B12" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="C12" s="29">
+      <c r="C12" s="24">
         <v>45354</v>
       </c>
-      <c r="D12" s="30">
+      <c r="D12" s="25">
         <f t="shared" si="4"/>
         <v>45354</v>
       </c>
@@ -3243,255 +3266,255 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:245" s="16" customFormat="1" ht="10.199999999999999" outlineLevel="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="6" t="s">
-        <v>23</v>
+    <row r="13" spans="1:245" s="13" customFormat="1" ht="10.199999999999999" outlineLevel="1" x14ac:dyDescent="0.2">
+      <c r="A13" s="28" t="s">
+        <v>39</v>
       </c>
       <c r="B13" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="C13" s="24">
+        <v>45363</v>
+      </c>
+      <c r="D13" s="25">
+        <f t="shared" ref="D13" si="5">C13+E13-1</f>
+        <v>45363</v>
+      </c>
+      <c r="E13" s="7">
+        <v>1</v>
+      </c>
+      <c r="F13" s="8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:245" s="13" customFormat="1" ht="10.199999999999999" outlineLevel="1" x14ac:dyDescent="0.2">
+      <c r="A14" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="B14" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="C13" s="29">
+      <c r="C14" s="24">
         <v>45368</v>
       </c>
-      <c r="D13" s="30">
+      <c r="D14" s="25">
         <f t="shared" si="4"/>
         <v>45369</v>
       </c>
-      <c r="E13" s="7">
+      <c r="E14" s="7">
         <v>2</v>
       </c>
-      <c r="F13" s="8">
+      <c r="F14" s="8">
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:245" s="16" customFormat="1" ht="10.199999999999999" outlineLevel="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="6" t="s">
-        <v>24</v>
-      </c>
-      <c r="B14" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="C14" s="29">
+    <row r="15" spans="1:245" s="13" customFormat="1" ht="10.199999999999999" outlineLevel="1" x14ac:dyDescent="0.2">
+      <c r="A15" s="29" t="s">
+        <v>37</v>
+      </c>
+      <c r="B15" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="C15" s="24">
+        <v>45370</v>
+      </c>
+      <c r="D15" s="25">
+        <f t="shared" si="4"/>
+        <v>45370</v>
+      </c>
+      <c r="E15" s="7">
+        <v>1</v>
+      </c>
+      <c r="F15" s="8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:245" s="13" customFormat="1" ht="10.199999999999999" outlineLevel="1" x14ac:dyDescent="0.2">
+      <c r="A16" s="29" t="s">
+        <v>22</v>
+      </c>
+      <c r="B16" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="C16" s="24">
         <v>45384</v>
       </c>
-      <c r="D14" s="30">
+      <c r="D16" s="25">
         <f t="shared" si="4"/>
         <v>45384</v>
       </c>
-      <c r="E14" s="7">
-        <v>1</v>
-      </c>
-      <c r="F14" s="8">
+      <c r="E16" s="7">
+        <v>1</v>
+      </c>
+      <c r="F16" s="8">
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:245" s="16" customFormat="1" ht="10.199999999999999" outlineLevel="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="6" t="s">
-        <v>25</v>
-      </c>
-      <c r="B15" s="6" t="s">
+    <row r="17" spans="1:112" s="13" customFormat="1" ht="10.199999999999999" outlineLevel="1" x14ac:dyDescent="0.2">
+      <c r="A17" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="B17" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="C15" s="29">
+      <c r="C17" s="24">
         <v>45384</v>
       </c>
-      <c r="D15" s="30">
-        <f t="shared" ref="D15" si="5">C15+E15-1</f>
+      <c r="D17" s="25">
+        <f t="shared" ref="D17" si="6">C17+E17-1</f>
         <v>45390</v>
       </c>
-      <c r="E15" s="7">
+      <c r="E17" s="7">
         <v>7</v>
       </c>
-      <c r="F15" s="8">
+      <c r="F17" s="8">
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:245" s="16" customFormat="1" ht="10.199999999999999" outlineLevel="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="6" t="s">
-        <v>35</v>
-      </c>
-      <c r="B16" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="C16" s="29">
-        <f>D15</f>
+    <row r="18" spans="1:112" s="13" customFormat="1" ht="10.199999999999999" outlineLevel="1" x14ac:dyDescent="0.2">
+      <c r="A18" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="B18" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="C18" s="24">
+        <f>D17</f>
         <v>45390</v>
       </c>
-      <c r="D16" s="30">
+      <c r="D18" s="25">
         <f t="shared" si="4"/>
         <v>45396</v>
       </c>
-      <c r="E16" s="7">
+      <c r="E18" s="7">
         <v>7</v>
       </c>
-      <c r="F16" s="8">
+      <c r="F18" s="8">
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:112" s="16" customFormat="1" ht="10.199999999999999" outlineLevel="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="6" t="s">
-        <v>26</v>
-      </c>
-      <c r="B17" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="C17" s="29">
+    <row r="19" spans="1:112" s="13" customFormat="1" ht="10.199999999999999" outlineLevel="1" x14ac:dyDescent="0.2">
+      <c r="A19" s="29" t="s">
+        <v>24</v>
+      </c>
+      <c r="B19" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="C19" s="24">
         <v>45398</v>
       </c>
-      <c r="D17" s="30">
+      <c r="D19" s="25">
         <f t="shared" si="4"/>
         <v>45398</v>
       </c>
-      <c r="E17" s="7">
-        <v>1</v>
-      </c>
-      <c r="F17" s="8">
+      <c r="E19" s="7">
+        <v>1</v>
+      </c>
+      <c r="F19" s="8">
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:112" s="16" customFormat="1" ht="10.199999999999999" outlineLevel="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="6" t="s">
-        <v>36</v>
-      </c>
-      <c r="B18" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="C18" s="29">
+    <row r="20" spans="1:112" s="13" customFormat="1" ht="10.199999999999999" outlineLevel="1" x14ac:dyDescent="0.2">
+      <c r="A20" s="28" t="s">
+        <v>43</v>
+      </c>
+      <c r="B20" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="C20" s="24">
         <v>45400</v>
       </c>
-      <c r="D18" s="30">
+      <c r="D20" s="25">
         <f t="shared" si="4"/>
         <v>45400</v>
       </c>
-      <c r="E18" s="7">
-        <v>1</v>
-      </c>
-      <c r="F18" s="8">
+      <c r="E20" s="7">
+        <v>1</v>
+      </c>
+      <c r="F20" s="8">
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="1:112" s="16" customFormat="1" ht="10.199999999999999" outlineLevel="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="35" t="s">
-        <v>41</v>
-      </c>
-      <c r="B19" s="6" t="s">
+    <row r="21" spans="1:112" s="13" customFormat="1" ht="10.199999999999999" outlineLevel="1" x14ac:dyDescent="0.2">
+      <c r="A21" s="27" t="s">
+        <v>36</v>
+      </c>
+      <c r="B21" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="C19" s="29">
+      <c r="C21" s="24">
         <v>45403</v>
       </c>
-      <c r="D19" s="30">
+      <c r="D21" s="25">
         <f t="shared" si="4"/>
         <v>45407</v>
       </c>
-      <c r="E19" s="7">
+      <c r="E21" s="7">
         <v>5</v>
       </c>
-      <c r="F19" s="8">
-        <v>1</v>
-      </c>
-      <c r="DH19" s="16" t="s">
+      <c r="F21" s="8">
+        <v>1</v>
+      </c>
+      <c r="DH21" s="13" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="20" spans="1:112" s="16" customFormat="1" ht="10.199999999999999" outlineLevel="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="35" t="s">
-        <v>41</v>
-      </c>
-      <c r="B20" s="6" t="s">
-        <v>27</v>
-      </c>
-      <c r="C20" s="29">
+    <row r="22" spans="1:112" s="13" customFormat="1" ht="10.199999999999999" outlineLevel="1" x14ac:dyDescent="0.2">
+      <c r="A22" s="27" t="s">
+        <v>36</v>
+      </c>
+      <c r="B22" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="C22" s="24">
         <v>45403</v>
       </c>
-      <c r="D20" s="30">
+      <c r="D22" s="25">
         <f t="shared" si="4"/>
         <v>45407</v>
       </c>
-      <c r="E20" s="7">
+      <c r="E22" s="7">
         <v>5</v>
       </c>
-      <c r="F20" s="8">
+      <c r="F22" s="8">
         <v>1</v>
       </c>
     </row>
-    <row r="21" spans="1:112" s="16" customFormat="1" ht="10.199999999999999" outlineLevel="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="6" t="s">
-        <v>28</v>
-      </c>
-      <c r="B21" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="C21" s="29">
+    <row r="23" spans="1:112" s="13" customFormat="1" ht="10.199999999999999" outlineLevel="1" x14ac:dyDescent="0.2">
+      <c r="A23" s="28" t="s">
+        <v>40</v>
+      </c>
+      <c r="B23" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="C23" s="24">
         <v>45405</v>
       </c>
-      <c r="D21" s="30">
+      <c r="D23" s="25">
         <f t="shared" si="4"/>
         <v>45405</v>
       </c>
-      <c r="E21" s="7">
-        <v>1</v>
-      </c>
-      <c r="F21" s="8">
+      <c r="E23" s="7">
+        <v>1</v>
+      </c>
+      <c r="F23" s="8">
         <v>1</v>
       </c>
     </row>
-    <row r="22" spans="1:112" s="16" customFormat="1" ht="10.199999999999999" outlineLevel="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="6" t="s">
-        <v>37</v>
-      </c>
-      <c r="B22" s="6" t="s">
+    <row r="24" spans="1:112" s="13" customFormat="1" ht="10.199999999999999" outlineLevel="1" x14ac:dyDescent="0.2">
+      <c r="A24" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="B24" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="C22" s="29">
+      <c r="C24" s="24">
         <v>45404</v>
       </c>
-      <c r="D22" s="30">
+      <c r="D24" s="25">
         <f t="shared" si="4"/>
         <v>45417</v>
       </c>
-      <c r="E22" s="7">
-        <v>14</v>
-      </c>
-      <c r="F22" s="8">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="23" spans="1:112" s="16" customFormat="1" ht="10.199999999999999" outlineLevel="1" x14ac:dyDescent="0.2">
-      <c r="A23" s="6" t="s">
-        <v>29</v>
-      </c>
-      <c r="B23" s="6" t="s">
-        <v>30</v>
-      </c>
-      <c r="C23" s="29">
-        <v>45404</v>
-      </c>
-      <c r="D23" s="30">
-        <f t="shared" ref="D23:D26" si="6">C23+E23-1</f>
-        <v>45417</v>
-      </c>
-      <c r="E23" s="7">
-        <v>14</v>
-      </c>
-      <c r="F23" s="8">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="24" spans="1:112" s="16" customFormat="1" ht="10.199999999999999" outlineLevel="1" x14ac:dyDescent="0.2">
-      <c r="A24" s="6" t="s">
-        <v>38</v>
-      </c>
-      <c r="B24" s="6" t="s">
-        <v>27</v>
-      </c>
-      <c r="C24" s="29">
-        <v>45404</v>
-      </c>
-      <c r="D24" s="30">
-        <f t="shared" si="6"/>
-        <v>45417</v>
-      </c>
       <c r="E24" s="7">
         <v>14</v>
       </c>
@@ -3499,40 +3522,40 @@
         <v>1</v>
       </c>
     </row>
-    <row r="25" spans="1:112" s="16" customFormat="1" ht="10.199999999999999" outlineLevel="1" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:112" s="13" customFormat="1" ht="10.199999999999999" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A25" s="6" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="B25" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="C25" s="29">
-        <v>45421</v>
-      </c>
-      <c r="D25" s="30">
-        <f t="shared" si="6"/>
-        <v>45421</v>
+        <v>27</v>
+      </c>
+      <c r="C25" s="24">
+        <v>45404</v>
+      </c>
+      <c r="D25" s="25">
+        <f t="shared" ref="D25:D28" si="7">C25+E25-1</f>
+        <v>45417</v>
       </c>
       <c r="E25" s="7">
-        <v>1</v>
+        <v>14</v>
       </c>
       <c r="F25" s="8">
         <v>1</v>
       </c>
     </row>
-    <row r="26" spans="1:112" s="16" customFormat="1" ht="10.199999999999999" outlineLevel="1" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:112" s="13" customFormat="1" ht="10.199999999999999" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A26" s="6" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="B26" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="C26" s="29">
-        <v>45418</v>
-      </c>
-      <c r="D26" s="30">
-        <f t="shared" si="6"/>
-        <v>45431</v>
+        <v>25</v>
+      </c>
+      <c r="C26" s="24">
+        <v>45404</v>
+      </c>
+      <c r="D26" s="25">
+        <f t="shared" si="7"/>
+        <v>45417</v>
       </c>
       <c r="E26" s="7">
         <v>14</v>
@@ -3541,38 +3564,38 @@
         <v>1</v>
       </c>
     </row>
-    <row r="27" spans="1:112" s="16" customFormat="1" ht="10.199999999999999" outlineLevel="1" x14ac:dyDescent="0.2">
-      <c r="A27" s="6" t="s">
-        <v>39</v>
+    <row r="27" spans="1:112" s="13" customFormat="1" ht="10.199999999999999" outlineLevel="1" x14ac:dyDescent="0.2">
+      <c r="A27" s="29" t="s">
+        <v>28</v>
       </c>
       <c r="B27" s="6" t="s">
-        <v>30</v>
-      </c>
-      <c r="C27" s="29">
+        <v>13</v>
+      </c>
+      <c r="C27" s="24">
+        <v>45421</v>
+      </c>
+      <c r="D27" s="25">
+        <f t="shared" si="7"/>
+        <v>45421</v>
+      </c>
+      <c r="E27" s="7">
+        <v>1</v>
+      </c>
+      <c r="F27" s="8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28" spans="1:112" s="13" customFormat="1" ht="10.199999999999999" outlineLevel="1" x14ac:dyDescent="0.2">
+      <c r="A28" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="B28" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="C28" s="24">
         <v>45418</v>
       </c>
-      <c r="D27" s="30">
-        <f t="shared" ref="D27:D35" si="7">C27+E27-1</f>
-        <v>45431</v>
-      </c>
-      <c r="E27" s="7">
-        <v>14</v>
-      </c>
-      <c r="F27" s="8">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="28" spans="1:112" s="16" customFormat="1" ht="10.199999999999999" outlineLevel="1" x14ac:dyDescent="0.2">
-      <c r="A28" s="6" t="s">
-        <v>39</v>
-      </c>
-      <c r="B28" s="6" t="s">
-        <v>27</v>
-      </c>
-      <c r="C28" s="29">
-        <v>45418</v>
-      </c>
-      <c r="D28" s="30">
+      <c r="D28" s="25">
         <f t="shared" si="7"/>
         <v>45431</v>
       </c>
@@ -3583,167 +3606,251 @@
         <v>1</v>
       </c>
     </row>
-    <row r="29" spans="1:112" s="16" customFormat="1" ht="10.199999999999999" outlineLevel="1" x14ac:dyDescent="0.2">
-      <c r="A29" s="35" t="s">
-        <v>41</v>
+    <row r="29" spans="1:112" s="13" customFormat="1" ht="10.199999999999999" outlineLevel="1" x14ac:dyDescent="0.2">
+      <c r="A29" s="6" t="s">
+        <v>34</v>
       </c>
       <c r="B29" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="C29" s="29">
-        <v>45424</v>
-      </c>
-      <c r="D29" s="30">
-        <f t="shared" si="7"/>
-        <v>45429</v>
+        <v>27</v>
+      </c>
+      <c r="C29" s="24">
+        <v>45418</v>
+      </c>
+      <c r="D29" s="25">
+        <f t="shared" ref="D29:D39" si="8">C29+E29-1</f>
+        <v>45431</v>
       </c>
       <c r="E29" s="7">
-        <v>6</v>
+        <v>14</v>
       </c>
       <c r="F29" s="8">
         <v>1</v>
       </c>
     </row>
-    <row r="30" spans="1:112" s="16" customFormat="1" ht="10.199999999999999" outlineLevel="1" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:112" s="13" customFormat="1" ht="10.199999999999999" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A30" s="6" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="B30" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="C30" s="29">
+        <v>25</v>
+      </c>
+      <c r="C30" s="24">
+        <v>45418</v>
+      </c>
+      <c r="D30" s="25">
+        <f t="shared" si="8"/>
         <v>45431</v>
       </c>
-      <c r="D30" s="30">
-        <f t="shared" si="7"/>
-        <v>45431</v>
-      </c>
       <c r="E30" s="7">
-        <v>1</v>
+        <v>14</v>
       </c>
       <c r="F30" s="8">
         <v>1</v>
       </c>
     </row>
-    <row r="31" spans="1:112" s="16" customFormat="1" ht="10.199999999999999" outlineLevel="1" x14ac:dyDescent="0.2">
-      <c r="A31" s="6" t="s">
-        <v>40</v>
+    <row r="31" spans="1:112" s="13" customFormat="1" ht="10.199999999999999" outlineLevel="1" x14ac:dyDescent="0.2">
+      <c r="A31" s="27" t="s">
+        <v>36</v>
       </c>
       <c r="B31" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="C31" s="29">
-        <f>+D30+1</f>
+      <c r="C31" s="24">
+        <v>45424</v>
+      </c>
+      <c r="D31" s="25">
+        <f t="shared" si="8"/>
+        <v>45429</v>
+      </c>
+      <c r="E31" s="7">
+        <v>6</v>
+      </c>
+      <c r="F31" s="8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="32" spans="1:112" s="13" customFormat="1" ht="10.199999999999999" outlineLevel="1" x14ac:dyDescent="0.2">
+      <c r="A32" s="28" t="s">
+        <v>41</v>
+      </c>
+      <c r="B32" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="C32" s="24">
+        <v>45426</v>
+      </c>
+      <c r="D32" s="25">
+        <f t="shared" si="8"/>
+        <v>45426</v>
+      </c>
+      <c r="E32" s="7">
+        <v>1</v>
+      </c>
+      <c r="F32" s="8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" s="13" customFormat="1" ht="10.199999999999999" outlineLevel="1" x14ac:dyDescent="0.2">
+      <c r="A33" s="29" t="s">
+        <v>29</v>
+      </c>
+      <c r="B33" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="C33" s="24">
+        <v>45431</v>
+      </c>
+      <c r="D33" s="25">
+        <f t="shared" si="8"/>
+        <v>45431</v>
+      </c>
+      <c r="E33" s="7">
+        <v>1</v>
+      </c>
+      <c r="F33" s="8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" s="13" customFormat="1" ht="10.199999999999999" outlineLevel="1" x14ac:dyDescent="0.2">
+      <c r="A34" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="B34" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="C34" s="24">
+        <f>+D33+1</f>
         <v>45432</v>
       </c>
-      <c r="D31" s="30">
-        <f t="shared" si="7"/>
+      <c r="D34" s="25">
+        <f t="shared" si="8"/>
         <v>45436</v>
       </c>
-      <c r="E31" s="7">
+      <c r="E34" s="7">
         <v>5</v>
-      </c>
-      <c r="F31" s="8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="32" spans="1:112" s="16" customFormat="1" ht="10.199999999999999" outlineLevel="1" x14ac:dyDescent="0.2">
-      <c r="A32" s="6" t="s">
-        <v>40</v>
-      </c>
-      <c r="B32" s="6" t="s">
-        <v>30</v>
-      </c>
-      <c r="C32" s="29">
-        <f>+C31</f>
-        <v>45432</v>
-      </c>
-      <c r="D32" s="30">
-        <f t="shared" si="7"/>
-        <v>45436</v>
-      </c>
-      <c r="E32" s="7">
-        <v>5</v>
-      </c>
-      <c r="F32" s="8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="33" spans="1:6" s="16" customFormat="1" ht="10.199999999999999" outlineLevel="1" x14ac:dyDescent="0.2">
-      <c r="A33" s="6" t="s">
-        <v>40</v>
-      </c>
-      <c r="B33" s="6" t="s">
-        <v>27</v>
-      </c>
-      <c r="C33" s="29">
-        <f>+C32</f>
-        <v>45432</v>
-      </c>
-      <c r="D33" s="30">
-        <f t="shared" si="7"/>
-        <v>45436</v>
-      </c>
-      <c r="E33" s="7">
-        <v>5</v>
-      </c>
-      <c r="F33" s="8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="34" spans="1:6" s="16" customFormat="1" ht="10.199999999999999" outlineLevel="1" x14ac:dyDescent="0.2">
-      <c r="A34" s="6" t="s">
-        <v>33</v>
-      </c>
-      <c r="B34" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="C34" s="29">
-        <v>45435</v>
-      </c>
-      <c r="D34" s="30">
-        <f t="shared" si="7"/>
-        <v>45435</v>
-      </c>
-      <c r="E34" s="7">
-        <v>1</v>
       </c>
       <c r="F34" s="8">
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:6" s="16" customFormat="1" ht="10.199999999999999" outlineLevel="1" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:6" s="13" customFormat="1" ht="10.199999999999999" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A35" s="6" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B35" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="C35" s="29">
-        <v>45438</v>
-      </c>
-      <c r="D35" s="30">
-        <f t="shared" si="7"/>
-        <v>45438</v>
+        <v>27</v>
+      </c>
+      <c r="C35" s="24">
+        <f>+C34</f>
+        <v>45432</v>
+      </c>
+      <c r="D35" s="25">
+        <f t="shared" si="8"/>
+        <v>45436</v>
       </c>
       <c r="E35" s="7">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="F35" s="8">
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:6" s="16" customFormat="1" ht="10.199999999999999" outlineLevel="1" x14ac:dyDescent="0.2">
-      <c r="A36" s="6"/>
-      <c r="B36" s="6"/>
-      <c r="C36" s="29"/>
-      <c r="D36" s="30"/>
-      <c r="E36" s="7"/>
-      <c r="F36" s="8"/>
+    <row r="36" spans="1:6" s="13" customFormat="1" ht="10.199999999999999" outlineLevel="1" x14ac:dyDescent="0.2">
+      <c r="A36" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="B36" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="C36" s="24">
+        <f>+C35</f>
+        <v>45432</v>
+      </c>
+      <c r="D36" s="25">
+        <f t="shared" si="8"/>
+        <v>45436</v>
+      </c>
+      <c r="E36" s="7">
+        <v>5</v>
+      </c>
+      <c r="F36" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" s="13" customFormat="1" ht="10.199999999999999" outlineLevel="1" x14ac:dyDescent="0.2">
+      <c r="A37" s="29" t="s">
+        <v>45</v>
+      </c>
+      <c r="B37" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="C37" s="24">
+        <v>45434</v>
+      </c>
+      <c r="D37" s="25">
+        <f t="shared" si="8"/>
+        <v>45434</v>
+      </c>
+      <c r="E37" s="7">
+        <v>1</v>
+      </c>
+      <c r="F37" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" s="13" customFormat="1" ht="10.199999999999999" outlineLevel="1" x14ac:dyDescent="0.2">
+      <c r="A38" s="28" t="s">
+        <v>44</v>
+      </c>
+      <c r="B38" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="C38" s="24">
+        <v>45435</v>
+      </c>
+      <c r="D38" s="25">
+        <f t="shared" si="8"/>
+        <v>45435</v>
+      </c>
+      <c r="E38" s="7">
+        <v>1</v>
+      </c>
+      <c r="F38" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6" s="13" customFormat="1" ht="10.199999999999999" outlineLevel="1" x14ac:dyDescent="0.2">
+      <c r="A39" s="28" t="s">
+        <v>30</v>
+      </c>
+      <c r="B39" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="C39" s="24">
+        <v>45438</v>
+      </c>
+      <c r="D39" s="25">
+        <f t="shared" si="8"/>
+        <v>45438</v>
+      </c>
+      <c r="E39" s="7">
+        <v>1</v>
+      </c>
+      <c r="F39" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6" s="13" customFormat="1" ht="10.199999999999999" outlineLevel="1" x14ac:dyDescent="0.2">
+      <c r="A40" s="6"/>
+      <c r="B40" s="6"/>
+      <c r="C40" s="24"/>
+      <c r="D40" s="25"/>
+      <c r="E40" s="7"/>
+      <c r="F40" s="8"/>
     </row>
   </sheetData>
   <sheetProtection formatCells="0" formatColumns="0" formatRows="0" insertRows="0" deleteRows="0"/>
-  <autoFilter ref="A3:IK36">
+  <autoFilter ref="A3:IK40">
     <filterColumn colId="7" showButton="0"/>
     <filterColumn colId="8" showButton="0"/>
     <filterColumn colId="9" showButton="0"/>
@@ -3950,18 +4057,12 @@
     <filterColumn colId="243" showButton="0"/>
   </autoFilter>
   <mergeCells count="34">
-    <mergeCell ref="HX3:ID3"/>
-    <mergeCell ref="AX3:BD3"/>
-    <mergeCell ref="CN3:CT3"/>
-    <mergeCell ref="CU3:DA3"/>
-    <mergeCell ref="DB3:DH3"/>
-    <mergeCell ref="ED3:EJ3"/>
-    <mergeCell ref="BE3:BK3"/>
-    <mergeCell ref="HQ3:HW3"/>
-    <mergeCell ref="GO3:GU3"/>
-    <mergeCell ref="GV3:HB3"/>
-    <mergeCell ref="FT3:FZ3"/>
-    <mergeCell ref="GA3:GG3"/>
+    <mergeCell ref="AJ3:AP3"/>
+    <mergeCell ref="AQ3:AW3"/>
+    <mergeCell ref="H3:N3"/>
+    <mergeCell ref="O3:U3"/>
+    <mergeCell ref="V3:AB3"/>
+    <mergeCell ref="AC3:AI3"/>
     <mergeCell ref="IE3:IK3"/>
     <mergeCell ref="BL3:BR3"/>
     <mergeCell ref="BS3:BY3"/>
@@ -3978,14 +4079,20 @@
     <mergeCell ref="GH3:GN3"/>
     <mergeCell ref="FF3:FL3"/>
     <mergeCell ref="FM3:FS3"/>
-    <mergeCell ref="AJ3:AP3"/>
-    <mergeCell ref="AQ3:AW3"/>
-    <mergeCell ref="H3:N3"/>
-    <mergeCell ref="O3:U3"/>
-    <mergeCell ref="V3:AB3"/>
-    <mergeCell ref="AC3:AI3"/>
+    <mergeCell ref="HX3:ID3"/>
+    <mergeCell ref="AX3:BD3"/>
+    <mergeCell ref="CN3:CT3"/>
+    <mergeCell ref="CU3:DA3"/>
+    <mergeCell ref="DB3:DH3"/>
+    <mergeCell ref="ED3:EJ3"/>
+    <mergeCell ref="BE3:BK3"/>
+    <mergeCell ref="HQ3:HW3"/>
+    <mergeCell ref="GO3:GU3"/>
+    <mergeCell ref="GV3:HB3"/>
+    <mergeCell ref="FT3:FZ3"/>
+    <mergeCell ref="GA3:GG3"/>
   </mergeCells>
-  <phoneticPr fontId="4" type="noConversion"/>
+  <phoneticPr fontId="3" type="noConversion"/>
   <conditionalFormatting sqref="H4:IK4">
     <cfRule type="expression" dxfId="4" priority="386" stopIfTrue="1">
       <formula>AND(H$2&gt;=$C4,H$2&lt;$C4+ROUNDDOWN($E4*$F4,0))</formula>
@@ -3994,12 +4101,12 @@
       <formula>AND(H$2&gt;=$C4,H$2&lt;=$C4+$E4-1)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H4:IK36">
+  <conditionalFormatting sqref="H4:IK40">
     <cfRule type="expression" dxfId="2" priority="373" stopIfTrue="1">
       <formula>H$2=$F$1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H5:IK36">
+  <conditionalFormatting sqref="H5:IK40">
     <cfRule type="expression" dxfId="1" priority="374" stopIfTrue="1">
       <formula>AND(H$2&gt;=$C5,H$2&lt;$C5+ROUNDDOWN($E5*$F5,0))</formula>
     </cfRule>
@@ -4057,12 +4164,12 @@
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1" s="25" t="s">
+      <c r="A1" s="20" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2" s="25" t="s">
+      <c r="A2" s="20" t="s">
         <v>4</v>
       </c>
     </row>
